--- a/REGULAR/SP-VMO/MONTENEGRO, HENRY DE SAGUN.xlsx
+++ b/REGULAR/SP-VMO/MONTENEGRO, HENRY DE SAGUN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2E7118-F9E6-41B9-89D0-793D699E838D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="278">
   <si>
     <t>PERIOD</t>
   </si>
@@ -873,7 +874,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1584,7 +1585,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1628,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1692,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1752,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1818,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1881,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,7 +1979,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2037,7 +2038,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2103,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2146,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2221,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2407,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2473,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2531,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +2597,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2653,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2727,7 +2728,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2770,7 +2771,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2837,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2893,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2971,7 +2972,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2988,26 +2989,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K579" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K579"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K579" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K579" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3314,7 +3315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3324,7 +3325,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3332,34 +3333,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K579"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A507" activePane="bottomLeft"/>
+      <pane ySplit="1800" topLeftCell="A516" activePane="bottomLeft"/>
       <selection activeCell="P8" sqref="P8"/>
-      <selection pane="bottomLeft" activeCell="E511" sqref="E511"/>
+      <selection pane="bottomLeft" activeCell="K535" sqref="K535"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3380,7 +3381,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3400,7 +3401,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3422,7 +3423,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3430,7 +3431,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3443,7 +3444,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3460,7 +3461,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3504,7 +3505,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>106.47499999999991</v>
+        <v>108.97499999999991</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3514,12 +3515,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.25</v>
+        <v>63.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>74</v>
       </c>
@@ -3541,7 +3542,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>36861</v>
       </c>
@@ -3556,7 +3557,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>75</v>
       </c>
@@ -3571,7 +3572,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>36892</v>
       </c>
@@ -3591,7 +3592,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>36923</v>
@@ -3612,7 +3613,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <f t="shared" ref="A15:A91" si="0">EDATE(A14,1)</f>
         <v>36951</v>
@@ -3633,7 +3634,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -3654,7 +3655,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>37012</v>
@@ -3675,7 +3676,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -3696,7 +3697,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -3717,7 +3718,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -3738,7 +3739,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>37135</v>
@@ -3759,7 +3760,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>37165</v>
@@ -3780,7 +3781,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>37196</v>
@@ -3801,7 +3802,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>37226</v>
@@ -3826,7 +3827,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>76</v>
       </c>
@@ -3848,7 +3849,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>37257</v>
@@ -3869,7 +3870,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>37288</v>
@@ -3890,7 +3891,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>37316</v>
@@ -3911,7 +3912,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>37347</v>
@@ -3932,7 +3933,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>37377</v>
@@ -3953,7 +3954,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>37408</v>
@@ -3974,7 +3975,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -3995,7 +3996,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>37469</v>
@@ -4016,7 +4017,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -4037,7 +4038,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>37530</v>
@@ -4064,7 +4065,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>99</v>
@@ -4084,7 +4085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f>EDATE(A35,1)</f>
         <v>37561</v>
@@ -4105,7 +4106,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>37591</v>
@@ -4130,7 +4131,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>77</v>
       </c>
@@ -4152,7 +4153,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f>EDATE(A38,1)</f>
         <v>37622</v>
@@ -4173,7 +4174,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>37653</v>
@@ -4194,7 +4195,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>37681</v>
@@ -4221,7 +4222,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>49</v>
@@ -4243,7 +4244,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <f>EDATE(A42,1)</f>
         <v>37712</v>
@@ -4264,7 +4265,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>37742</v>
@@ -4285,7 +4286,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -4306,7 +4307,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -4333,7 +4334,7 @@
         <v>37823</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -4354,7 +4355,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -4381,7 +4382,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>101</v>
@@ -4401,7 +4402,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <f>EDATE(A49,1)</f>
         <v>37895</v>
@@ -4428,7 +4429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>102</v>
@@ -4448,7 +4449,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f>EDATE(A51,1)</f>
         <v>37926</v>
@@ -4475,7 +4476,7 @@
         <v>37939</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -4497,7 +4498,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>103</v>
@@ -4517,7 +4518,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f>EDATE(A53,1)</f>
         <v>37956</v>
@@ -4542,7 +4543,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>107</v>
@@ -4559,7 +4560,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>78</v>
       </c>
@@ -4581,7 +4582,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f>EDATE(A56,1)</f>
         <v>37987</v>
@@ -4606,7 +4607,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>38018</v>
@@ -4631,7 +4632,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>38047</v>
@@ -4658,7 +4659,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>113</v>
@@ -4675,7 +4676,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <f>EDATE(A61,1)</f>
         <v>38078</v>
@@ -4702,7 +4703,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>38108</v>
@@ -4727,7 +4728,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <f t="shared" si="0"/>
         <v>38139</v>
@@ -4748,7 +4749,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <f t="shared" si="0"/>
         <v>38169</v>
@@ -4775,7 +4776,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>111</v>
@@ -4795,7 +4796,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f>EDATE(A66,1)</f>
         <v>38200</v>
@@ -4822,7 +4823,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>57</v>
@@ -4841,7 +4842,7 @@
         <v>38219</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>115</v>
@@ -4858,7 +4859,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <f>EDATE(A68,1)</f>
         <v>38231</v>
@@ -4883,7 +4884,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <f t="shared" si="0"/>
         <v>38261</v>
@@ -4910,7 +4911,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <f t="shared" si="0"/>
         <v>38292</v>
@@ -4935,7 +4936,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <f t="shared" si="0"/>
         <v>38322</v>
@@ -4960,7 +4961,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>65</v>
@@ -4977,7 +4978,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>79</v>
       </c>
@@ -4999,7 +5000,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <f>EDATE(A74,1)</f>
         <v>38353</v>
@@ -5026,7 +5027,7 @@
         <v>38357</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>57</v>
@@ -5048,7 +5049,7 @@
         <v>38370</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <f>EDATE(A77,1)</f>
         <v>38384</v>
@@ -5069,7 +5070,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f t="shared" si="0"/>
         <v>38412</v>
@@ -5096,7 +5097,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>69</v>
@@ -5118,7 +5119,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f>EDATE(A80,1)</f>
         <v>38443</v>
@@ -5139,7 +5140,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <f t="shared" si="0"/>
         <v>38473</v>
@@ -5160,7 +5161,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <f t="shared" si="0"/>
         <v>38504</v>
@@ -5187,7 +5188,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>59</v>
@@ -5207,7 +5208,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <f>EDATE(A84,1)</f>
         <v>38534</v>
@@ -5228,7 +5229,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <f t="shared" si="0"/>
         <v>38565</v>
@@ -5255,7 +5256,7 @@
         <v>38567</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>125</v>
@@ -5274,7 +5275,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <f>EDATE(A87,1)</f>
         <v>38596</v>
@@ -5301,7 +5302,7 @@
         <v>38624</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <f t="shared" si="0"/>
         <v>38626</v>
@@ -5328,7 +5329,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <f t="shared" si="0"/>
         <v>38657</v>
@@ -5355,7 +5356,7 @@
         <v>38658</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>127</v>
@@ -5377,7 +5378,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <f>EDATE(A91,1)</f>
         <v>38687</v>
@@ -5404,7 +5405,7 @@
         <v>38702</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="48" t="s">
         <v>80</v>
       </c>
@@ -5422,7 +5423,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <f>EDATE(A93,1)</f>
         <v>38718</v>
@@ -5449,7 +5450,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>128</v>
@@ -5469,7 +5470,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <f>EDATE(A95,1)</f>
         <v>38749</v>
@@ -5496,7 +5497,7 @@
         <v>38749</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>57</v>
@@ -5518,7 +5519,7 @@
         <v>38755</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>129</v>
@@ -5538,7 +5539,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <f>EDATE(A97,1)</f>
         <v>38777</v>
@@ -5565,7 +5566,7 @@
         <v>38777</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>52</v>
@@ -5587,7 +5588,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>47</v>
@@ -5609,7 +5610,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>134</v>
@@ -5629,7 +5630,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <f>EDATE(A100,1)</f>
         <v>38808</v>
@@ -5656,7 +5657,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>57</v>
@@ -5678,7 +5679,7 @@
         <v>38833</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>135</v>
@@ -5698,7 +5699,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <f>EDATE(A104,1)</f>
         <v>38838</v>
@@ -5725,7 +5726,7 @@
         <v>38846</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>57</v>
@@ -5747,7 +5748,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>57</v>
@@ -5769,7 +5770,7 @@
         <v>38856</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>51</v>
@@ -5789,7 +5790,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>136</v>
@@ -5806,7 +5807,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <f>EDATE(A107,1)</f>
         <v>38869</v>
@@ -5833,7 +5834,7 @@
         <v>38869</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>137</v>
@@ -5853,7 +5854,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <f>EDATE(A112,1)</f>
         <v>38899</v>
@@ -5880,7 +5881,7 @@
         <v>38903</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>57</v>
@@ -5902,7 +5903,7 @@
         <v>38901</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>57</v>
@@ -5924,7 +5925,7 @@
         <v>38918</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>57</v>
@@ -5946,7 +5947,7 @@
         <v>38922</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>120</v>
@@ -5966,7 +5967,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <f>EDATE(A114,1)</f>
         <v>38930</v>
@@ -5993,7 +5994,7 @@
         <v>38930</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>57</v>
@@ -6015,7 +6016,7 @@
         <v>38944</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>47</v>
@@ -6035,7 +6036,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <f>EDATE(A119,1)</f>
         <v>38961</v>
@@ -6062,7 +6063,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>140</v>
@@ -6082,7 +6083,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="50"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>57</v>
@@ -6104,7 +6105,7 @@
         <v>38981</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <f>EDATE(A122,1)</f>
         <v>38991</v>
@@ -6131,7 +6132,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>57</v>
@@ -6153,7 +6154,7 @@
         <v>38993</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>57</v>
@@ -6173,7 +6174,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>57</v>
@@ -6195,7 +6196,7 @@
         <v>39007</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f>EDATE(A125,1)</f>
         <v>39022</v>
@@ -6222,7 +6223,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>57</v>
@@ -6244,7 +6245,7 @@
         <v>39030</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>57</v>
@@ -6266,7 +6267,7 @@
         <v>39042</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>57</v>
@@ -6288,7 +6289,7 @@
         <v>39045</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <f>EDATE(A129,1)</f>
         <v>39052</v>
@@ -6315,7 +6316,7 @@
         <v>39066</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>95</v>
@@ -6335,7 +6336,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>81</v>
       </c>
@@ -6357,7 +6358,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <f>EDATE(A133,1)</f>
         <v>39083</v>
@@ -6384,7 +6385,7 @@
         <v>39080</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>142</v>
@@ -6404,7 +6405,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <f>EDATE(A136,1)</f>
         <v>39114</v>
@@ -6431,7 +6432,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>57</v>
@@ -6453,7 +6454,7 @@
         <v>39108</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>57</v>
@@ -6475,7 +6476,7 @@
         <v>39121</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>57</v>
@@ -6497,7 +6498,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>49</v>
@@ -6519,7 +6520,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>144</v>
@@ -6539,7 +6540,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="50"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f>EDATE(A138,1)</f>
         <v>39142</v>
@@ -6566,7 +6567,7 @@
         <v>39143</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>49</v>
@@ -6588,7 +6589,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>145</v>
@@ -6608,7 +6609,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>57</v>
@@ -6630,7 +6631,7 @@
         <v>39182</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>146</v>
@@ -6652,7 +6653,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <f>EDATE(A144,1)</f>
         <v>39173</v>
@@ -6679,7 +6680,7 @@
         <v>39197</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>57</v>
@@ -6701,7 +6702,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>147</v>
@@ -6721,7 +6722,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>57</v>
@@ -6743,7 +6744,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>57</v>
@@ -6765,7 +6766,7 @@
         <v>39206</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
         <f>EDATE(A149,1)</f>
         <v>39203</v>
@@ -6792,7 +6793,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>148</v>
@@ -6812,7 +6813,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>96</v>
@@ -6834,7 +6835,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <f>EDATE(A154,1)</f>
         <v>39234</v>
@@ -6861,7 +6862,7 @@
         <v>39234</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>51</v>
@@ -6881,7 +6882,7 @@
         <v>39240</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>57</v>
@@ -6903,7 +6904,7 @@
         <v>39248</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>149</v>
@@ -6923,7 +6924,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>57</v>
@@ -6945,7 +6946,7 @@
         <v>39241</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f>EDATE(A157,1)</f>
         <v>39264</v>
@@ -6972,7 +6973,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>57</v>
@@ -6994,7 +6995,7 @@
         <v>39281</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>57</v>
@@ -7016,7 +7017,7 @@
         <v>39287</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <f>EDATE(A162,1)</f>
         <v>39295</v>
@@ -7043,7 +7044,7 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>49</v>
@@ -7065,7 +7066,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>116</v>
@@ -7085,7 +7086,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>156</v>
@@ -7103,7 +7104,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
         <f>EDATE(A165,1)</f>
         <v>39326</v>
@@ -7130,7 +7131,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>57</v>
@@ -7152,7 +7153,7 @@
         <v>39337</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>49</v>
@@ -7174,7 +7175,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>57</v>
@@ -7196,7 +7197,7 @@
         <v>39343</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <f>EDATE(A169,1)</f>
         <v>39356</v>
@@ -7223,7 +7224,7 @@
         <v>39377</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>57</v>
@@ -7245,7 +7246,7 @@
         <v>39364</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <f>EDATE(A173,1)</f>
         <v>39387</v>
@@ -7272,7 +7273,7 @@
         <v>39380</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>57</v>
@@ -7294,7 +7295,7 @@
         <v>39407</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>39417</v>
@@ -7321,7 +7322,7 @@
         <v>39426</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="48" t="s">
         <v>82</v>
       </c>
@@ -7339,7 +7340,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <f>EDATE(A177,1)</f>
         <v>39448</v>
@@ -7366,7 +7367,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>57</v>
@@ -7385,7 +7386,7 @@
         <v>39469</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>157</v>
@@ -7402,7 +7403,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <f>EDATE(A179,1)</f>
         <v>39479</v>
@@ -7429,7 +7430,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>49</v>
@@ -7451,7 +7452,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>166</v>
@@ -7471,7 +7472,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="50"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <f>EDATE(A182,1)</f>
         <v>39508</v>
@@ -7498,7 +7499,7 @@
         <v>39514</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>52</v>
@@ -7520,7 +7521,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>51</v>
@@ -7540,7 +7541,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>167</v>
@@ -7560,7 +7561,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <f>EDATE(A185,1)</f>
         <v>39539</v>
@@ -7587,7 +7588,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>168</v>
@@ -7607,7 +7608,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <f>EDATE(A189,1)</f>
         <v>39569</v>
@@ -7634,7 +7635,7 @@
         <v>39583</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>57</v>
@@ -7656,7 +7657,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>169</v>
@@ -7676,7 +7677,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23">
         <f>EDATE(A191,1)</f>
         <v>39600</v>
@@ -7703,7 +7704,7 @@
         <v>39622</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>170</v>
@@ -7723,7 +7724,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <f>EDATE(A194,1)</f>
         <v>39630</v>
@@ -7750,7 +7751,7 @@
         <v>39631</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>57</v>
@@ -7772,7 +7773,7 @@
         <v>39645</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>171</v>
@@ -7792,7 +7793,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>39661</v>
@@ -7819,7 +7820,7 @@
         <v>39673</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>57</v>
@@ -7838,7 +7839,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>172</v>
@@ -7855,7 +7856,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <f>EDATE(A199,1)</f>
         <v>39692</v>
@@ -7882,7 +7883,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>57</v>
@@ -7901,7 +7902,7 @@
         <v>39715</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>177</v>
@@ -7918,7 +7919,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <f>EDATE(A202,1)</f>
         <v>39722</v>
@@ -7945,7 +7946,7 @@
         <v>39741</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>57</v>
@@ -7967,7 +7968,7 @@
         <v>39750</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>178</v>
@@ -7987,7 +7988,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23">
         <f>EDATE(A205,1)</f>
         <v>39753</v>
@@ -8012,7 +8013,7 @@
         <v>39777</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>57</v>
@@ -8034,7 +8035,7 @@
         <v>39784</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>179</v>
@@ -8054,7 +8055,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <f>EDATE(A208,1)</f>
         <v>39783</v>
@@ -8081,7 +8082,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>180</v>
@@ -8101,7 +8102,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="48" t="s">
         <v>83</v>
       </c>
@@ -8119,7 +8120,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23">
         <f>EDATE(A211,1)</f>
         <v>39814</v>
@@ -8146,7 +8147,7 @@
         <v>39820</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>57</v>
@@ -8168,7 +8169,7 @@
         <v>39827</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>57</v>
@@ -8190,7 +8191,7 @@
         <v>39841</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>169</v>
@@ -8210,7 +8211,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <f>EDATE(A214,1)</f>
         <v>39845</v>
@@ -8237,7 +8238,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>68</v>
@@ -8257,7 +8258,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>181</v>
@@ -8277,7 +8278,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23">
         <f>EDATE(A218,1)</f>
         <v>39873</v>
@@ -8304,7 +8305,7 @@
         <v>39874</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>52</v>
@@ -8326,7 +8327,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>51</v>
@@ -8346,7 +8347,7 @@
         <v>39896</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>185</v>
@@ -8366,7 +8367,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="50"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <f>EDATE(A221,1)</f>
         <v>39904</v>
@@ -8393,7 +8394,7 @@
         <v>39926</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>137</v>
@@ -8413,7 +8414,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <f>EDATE(A225,1)</f>
         <v>39934</v>
@@ -8438,7 +8439,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <f t="shared" ref="A228:A295" si="1">EDATE(A227,1)</f>
         <v>39965</v>
@@ -8463,7 +8464,7 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>57</v>
@@ -8485,7 +8486,7 @@
         <v>39974</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>49</v>
@@ -8505,7 +8506,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>187</v>
@@ -8527,7 +8528,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <f>EDATE(A228,1)</f>
         <v>39995</v>
@@ -8554,7 +8555,7 @@
         <v>40023</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>188</v>
@@ -8574,7 +8575,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <f>EDATE(A232,1)</f>
         <v>40026</v>
@@ -8601,7 +8602,7 @@
         <v>40045</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>68</v>
@@ -8623,7 +8624,7 @@
         <v>40052</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>40057</v>
@@ -8650,7 +8651,7 @@
         <v>40066</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>189</v>
@@ -8670,7 +8671,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <f>EDATE(A236,1)</f>
         <v>40087</v>
@@ -8697,7 +8698,7 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>57</v>
@@ -8719,7 +8720,7 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>57</v>
@@ -8741,7 +8742,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>190</v>
@@ -8761,7 +8762,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
         <f>EDATE(A238,1)</f>
         <v>40118</v>
@@ -8788,7 +8789,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>191</v>
@@ -8808,7 +8809,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <f>EDATE(A242,1)</f>
         <v>40148</v>
@@ -8829,7 +8830,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="48" t="s">
         <v>84</v>
       </c>
@@ -8847,7 +8848,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <f>EDATE(A244,1)</f>
         <v>40179</v>
@@ -8872,7 +8873,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <f t="shared" si="1"/>
         <v>40210</v>
@@ -8899,7 +8900,7 @@
         <v>40212</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>68</v>
@@ -8921,7 +8922,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>195</v>
@@ -8941,7 +8942,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <f>EDATE(A247,1)</f>
         <v>40238</v>
@@ -8968,7 +8969,7 @@
         <v>40238</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>68</v>
@@ -8990,7 +8991,7 @@
         <v>40263</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>196</v>
@@ -9010,7 +9011,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <f>EDATE(A250,1)</f>
         <v>40269</v>
@@ -9037,7 +9038,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>197</v>
@@ -9057,7 +9058,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <f>EDATE(A253,1)</f>
         <v>40299</v>
@@ -9084,7 +9085,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>57</v>
@@ -9106,7 +9107,7 @@
         <v>40316</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>51</v>
@@ -9126,7 +9127,7 @@
         <v>40336</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>198</v>
@@ -9146,7 +9147,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <f>EDATE(A255,1)</f>
         <v>40330</v>
@@ -9173,7 +9174,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>57</v>
@@ -9195,7 +9196,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <f>EDATE(A259,1)</f>
         <v>40360</v>
@@ -9222,7 +9223,7 @@
         <v>40375</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <f t="shared" si="1"/>
         <v>40391</v>
@@ -9249,7 +9250,7 @@
         <v>40408</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>201</v>
@@ -9269,7 +9270,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <f>EDATE(A262,1)</f>
         <v>40422</v>
@@ -9296,7 +9297,7 @@
         <v>40449</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>101</v>
@@ -9316,7 +9317,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <f>EDATE(A264,1)</f>
         <v>40452</v>
@@ -9343,7 +9344,7 @@
         <v>40470</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>51</v>
@@ -9363,7 +9364,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>202</v>
@@ -9383,7 +9384,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <f>EDATE(A266,1)</f>
         <v>40483</v>
@@ -9410,7 +9411,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>57</v>
@@ -9432,7 +9433,7 @@
         <v>40508</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>95</v>
@@ -9454,7 +9455,7 @@
         <v>40522</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>203</v>
@@ -9474,7 +9475,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <f>EDATE(A269,1)</f>
         <v>40513</v>
@@ -9501,7 +9502,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>204</v>
@@ -9521,7 +9522,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="48" t="s">
         <v>85</v>
       </c>
@@ -9543,7 +9544,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <f>EDATE(A273,1)</f>
         <v>40544</v>
@@ -9568,7 +9569,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23">
         <f t="shared" si="1"/>
         <v>40575</v>
@@ -9595,7 +9596,7 @@
         <v>40577</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>57</v>
@@ -9617,7 +9618,7 @@
         <v>40595</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>205</v>
@@ -9637,7 +9638,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <f>EDATE(A277,1)</f>
         <v>40603</v>
@@ -9664,7 +9665,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>57</v>
@@ -9686,7 +9687,7 @@
         <v>40630</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>164</v>
@@ -9706,7 +9707,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>211</v>
@@ -9723,7 +9724,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <f>EDATE(A280,1)</f>
         <v>40634</v>
@@ -9750,7 +9751,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>212</v>
@@ -9770,7 +9771,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <f>EDATE(A284,1)</f>
         <v>40664</v>
@@ -9797,7 +9798,7 @@
         <v>40667</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>51</v>
@@ -9817,7 +9818,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>92</v>
@@ -9839,7 +9840,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>57</v>
@@ -9861,7 +9862,7 @@
         <v>40701</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>170</v>
@@ -9881,7 +9882,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <f>EDATE(A286,1)</f>
         <v>40695</v>
@@ -9908,7 +9909,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>57</v>
@@ -9930,7 +9931,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>213</v>
@@ -9950,7 +9951,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <f>EDATE(A291,1)</f>
         <v>40725</v>
@@ -9971,7 +9972,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23">
         <f t="shared" si="1"/>
         <v>40756</v>
@@ -9998,7 +9999,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>214</v>
@@ -10018,7 +10019,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <f>EDATE(A295,1)</f>
         <v>40787</v>
@@ -10045,7 +10046,7 @@
         <v>40787</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>57</v>
@@ -10067,7 +10068,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>95</v>
@@ -10089,7 +10090,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>215</v>
@@ -10109,7 +10110,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <f>EDATE(A297,1)</f>
         <v>40817</v>
@@ -10136,7 +10137,7 @@
         <v>40819</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>57</v>
@@ -10158,7 +10159,7 @@
         <v>40827</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>57</v>
@@ -10180,7 +10181,7 @@
         <v>40843</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>220</v>
@@ -10200,7 +10201,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="50"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <f>EDATE(A301,1)</f>
         <v>40848</v>
@@ -10227,7 +10228,7 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>57</v>
@@ -10249,7 +10250,7 @@
         <v>40869</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>221</v>
@@ -10269,7 +10270,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <f>EDATE(A305,1)</f>
         <v>40878</v>
@@ -10296,7 +10297,7 @@
         <v>40885</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>57</v>
@@ -10318,7 +10319,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>222</v>
@@ -10338,7 +10339,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="48" t="s">
         <v>86</v>
       </c>
@@ -10360,7 +10361,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <f>EDATE(A308,1)</f>
         <v>40909</v>
@@ -10387,7 +10388,7 @@
         <v>40932</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>226</v>
@@ -10407,7 +10408,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <f>EDATE(A312,1)</f>
         <v>40940</v>
@@ -10434,7 +10435,7 @@
         <v>40942</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>95</v>
@@ -10456,7 +10457,7 @@
         <v>40961</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>69</v>
@@ -10478,7 +10479,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>223</v>
@@ -10498,7 +10499,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <f>EDATE(A314,1)</f>
         <v>40969</v>
@@ -10523,7 +10524,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <f t="shared" ref="A319:A409" si="2">EDATE(A318,1)</f>
         <v>41000</v>
@@ -10550,7 +10551,7 @@
         <v>41010</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>57</v>
@@ -10572,7 +10573,7 @@
         <v>41024</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>57</v>
@@ -10594,7 +10595,7 @@
         <v>41038</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>57</v>
@@ -10616,7 +10617,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>253</v>
@@ -10636,7 +10637,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="50"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <f>EDATE(A319,1)</f>
         <v>41030</v>
@@ -10661,7 +10662,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>254</v>
@@ -10681,7 +10682,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
         <f>EDATE(A324,1)</f>
         <v>41061</v>
@@ -10708,7 +10709,7 @@
         <v>41071</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>57</v>
@@ -10730,7 +10731,7 @@
         <v>41102</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>255</v>
@@ -10750,7 +10751,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <f>EDATE(A326,1)</f>
         <v>41091</v>
@@ -10777,7 +10778,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>57</v>
@@ -10799,7 +10800,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>256</v>
@@ -10819,7 +10820,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23">
         <f>EDATE(A329,1)</f>
         <v>41122</v>
@@ -10846,7 +10847,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>57</v>
@@ -10868,7 +10869,7 @@
         <v>41145</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <f>EDATE(A332,1)</f>
         <v>41153</v>
@@ -10895,7 +10896,7 @@
         <v>41172</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>257</v>
@@ -10915,7 +10916,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <f>EDATE(A334,1)</f>
         <v>41183</v>
@@ -10942,7 +10943,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>258</v>
@@ -10962,7 +10963,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <f>EDATE(A336,1)</f>
         <v>41214</v>
@@ -10989,7 +10990,7 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>57</v>
@@ -11011,7 +11012,7 @@
         <v>41256</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>259</v>
@@ -11031,7 +11032,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <f>EDATE(A338,1)</f>
         <v>41244</v>
@@ -11058,7 +11059,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="48" t="s">
         <v>87</v>
       </c>
@@ -11080,7 +11081,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>41275</v>
@@ -11101,7 +11102,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <f t="shared" si="2"/>
         <v>41306</v>
@@ -11128,7 +11129,7 @@
         <v>41318</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>57</v>
@@ -11150,7 +11151,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
         <f>EDATE(A344,1)</f>
         <v>41334</v>
@@ -11177,7 +11178,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>59</v>
@@ -11197,7 +11198,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <f>EDATE(A346,1)</f>
         <v>41365</v>
@@ -11224,7 +11225,7 @@
         <v>41375</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>140</v>
@@ -11246,7 +11247,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <f>EDATE(A348,1)</f>
         <v>41395</v>
@@ -11271,7 +11272,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <f t="shared" si="2"/>
         <v>41426</v>
@@ -11298,7 +11299,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23">
         <f t="shared" si="2"/>
         <v>41456</v>
@@ -11325,7 +11326,7 @@
         <v>41473</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>57</v>
@@ -11347,7 +11348,7 @@
         <v>41479</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
         <f>EDATE(A352,1)</f>
         <v>41487</v>
@@ -11374,7 +11375,7 @@
         <v>41492</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>57</v>
@@ -11396,7 +11397,7 @@
         <v>41498</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <f>EDATE(A354,1)</f>
         <v>41518</v>
@@ -11423,7 +11424,7 @@
         <v>41506</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>57</v>
@@ -11445,7 +11446,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23">
         <f>EDATE(A356,1)</f>
         <v>41548</v>
@@ -11472,7 +11473,7 @@
         <v>41572</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>57</v>
@@ -11494,7 +11495,7 @@
         <v>41591</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <f>EDATE(A358,1)</f>
         <v>41579</v>
@@ -11521,7 +11522,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <f t="shared" si="2"/>
         <v>41609</v>
@@ -11548,7 +11549,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>146</v>
@@ -11570,7 +11571,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="48" t="s">
         <v>88</v>
       </c>
@@ -11588,7 +11589,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23">
         <f>EDATE(A361,1)</f>
         <v>41640</v>
@@ -11615,7 +11616,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>262</v>
@@ -11637,7 +11638,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <f>EDATE(A364,1)</f>
         <v>41671</v>
@@ -11658,7 +11659,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23">
         <f t="shared" si="2"/>
         <v>41699</v>
@@ -11685,7 +11686,7 @@
         <v>41703</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>51</v>
@@ -11702,7 +11703,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>69</v>
@@ -11724,7 +11725,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>57</v>
@@ -11746,7 +11747,7 @@
         <v>41733</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>245</v>
@@ -11766,7 +11767,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
         <f>EDATE(A367,1)</f>
         <v>41730</v>
@@ -11793,7 +11794,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>168</v>
@@ -11813,7 +11814,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23">
         <f>EDATE(A372,1)</f>
         <v>41760</v>
@@ -11840,7 +11841,7 @@
         <v>41761</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>57</v>
@@ -11862,7 +11863,7 @@
         <v>41768</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>57</v>
@@ -11884,7 +11885,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>51</v>
@@ -11904,7 +11905,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>187</v>
@@ -11924,7 +11925,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f>EDATE(A374,1)</f>
         <v>41791</v>
@@ -11945,7 +11946,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23">
         <f t="shared" si="2"/>
         <v>41821</v>
@@ -11972,7 +11973,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>246</v>
@@ -11992,7 +11993,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23">
         <f>EDATE(A380,1)</f>
         <v>41852</v>
@@ -12019,7 +12020,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>247</v>
@@ -12039,7 +12040,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <f>EDATE(A382,1)</f>
         <v>41883</v>
@@ -12066,7 +12067,7 @@
         <v>41890</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
         <v>248</v>
@@ -12086,7 +12087,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <f>EDATE(A384,1)</f>
         <v>41913</v>
@@ -12111,7 +12112,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>57</v>
@@ -12133,7 +12134,7 @@
         <v>41932</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>57</v>
@@ -12155,7 +12156,7 @@
         <v>41935</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23">
         <f>EDATE(A386,1)</f>
         <v>41944</v>
@@ -12180,7 +12181,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>242</v>
@@ -12197,7 +12198,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <f>EDATE(A389,1)</f>
         <v>41974</v>
@@ -12222,7 +12223,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="48" t="s">
         <v>89</v>
       </c>
@@ -12244,7 +12245,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <f>EDATE(A391,1)</f>
         <v>42005</v>
@@ -12271,7 +12272,7 @@
         <v>42033</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>187</v>
@@ -12291,7 +12292,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23">
         <f>EDATE(A393,1)</f>
         <v>42036</v>
@@ -12316,7 +12317,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>234</v>
@@ -12336,7 +12337,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23">
         <f>EDATE(A395,1)</f>
         <v>42064</v>
@@ -12363,7 +12364,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>235</v>
@@ -12383,7 +12384,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23">
         <f>EDATE(A397,1)</f>
         <v>42095</v>
@@ -12410,7 +12411,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>187</v>
@@ -12430,7 +12431,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23">
         <f>EDATE(A399,1)</f>
         <v>42125</v>
@@ -12455,7 +12456,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <f t="shared" si="2"/>
         <v>42156</v>
@@ -12480,7 +12481,7 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>57</v>
@@ -12502,7 +12503,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>236</v>
@@ -12522,7 +12523,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <f>EDATE(A402,1)</f>
         <v>42186</v>
@@ -12547,7 +12548,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23">
         <f t="shared" si="2"/>
         <v>42217</v>
@@ -12574,7 +12575,7 @@
         <v>42234</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>57</v>
@@ -12596,7 +12597,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23">
         <f>EDATE(A406,1)</f>
         <v>42248</v>
@@ -12617,7 +12618,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <f t="shared" si="2"/>
         <v>42278</v>
@@ -12644,7 +12645,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>49</v>
@@ -12666,7 +12667,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>228</v>
@@ -12686,7 +12687,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23">
         <f>EDATE(A409,1)</f>
         <v>42309</v>
@@ -12711,7 +12712,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>229</v>
@@ -12731,7 +12732,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23">
         <f>EDATE(A412,1)</f>
         <v>42339</v>
@@ -12758,7 +12759,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>230</v>
@@ -12778,7 +12779,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="48" t="s">
         <v>90</v>
       </c>
@@ -12800,7 +12801,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23">
         <f>EDATE(A414,1)</f>
         <v>42370</v>
@@ -12827,7 +12828,7 @@
         <v>42387</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23">
         <f t="shared" ref="A418:A433" si="3">EDATE(A417,1)</f>
         <v>42401</v>
@@ -12854,7 +12855,7 @@
         <v>42409</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>57</v>
@@ -12876,7 +12877,7 @@
         <v>42426</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>52</v>
@@ -12898,7 +12899,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>49</v>
@@ -12918,7 +12919,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23">
         <f>EDATE(A418,1)</f>
         <v>42430</v>
@@ -12939,7 +12940,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23">
         <f t="shared" si="3"/>
         <v>42461</v>
@@ -12966,7 +12967,7 @@
         <v>42466</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>57</v>
@@ -12988,7 +12989,7 @@
         <v>42489</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>57</v>
@@ -13010,7 +13011,7 @@
         <v>42485</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>57</v>
@@ -13032,7 +13033,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23">
         <f>EDATE(A423,1)</f>
         <v>42491</v>
@@ -13053,7 +13054,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <f t="shared" si="3"/>
         <v>42522</v>
@@ -13078,7 +13079,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23">
         <f t="shared" si="3"/>
         <v>42552</v>
@@ -13099,7 +13100,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23">
         <f t="shared" si="3"/>
         <v>42583</v>
@@ -13126,7 +13127,7 @@
         <v>42607</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23">
         <f t="shared" si="3"/>
         <v>42614</v>
@@ -13147,7 +13148,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23">
         <f t="shared" si="3"/>
         <v>42644</v>
@@ -13168,7 +13169,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23">
         <f t="shared" si="3"/>
         <v>42675</v>
@@ -13189,7 +13190,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23">
         <f>EDATE(A433,1)</f>
         <v>42705</v>
@@ -13214,7 +13215,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>57</v>
@@ -13231,7 +13232,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>164</v>
@@ -13246,7 +13247,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="48" t="s">
         <v>91</v>
       </c>
@@ -13265,7 +13266,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23">
         <f>EDATE(A434,1)</f>
         <v>42736</v>
@@ -13292,7 +13293,7 @@
         <v>42765</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23">
         <f t="shared" ref="A439:A447" si="4">EDATE(A438,1)</f>
         <v>42767</v>
@@ -13313,7 +13314,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="23">
         <f t="shared" si="4"/>
         <v>42795</v>
@@ -13340,7 +13341,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23">
         <f t="shared" si="4"/>
         <v>42826</v>
@@ -13367,7 +13368,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>57</v>
@@ -13389,7 +13390,7 @@
         <v>42850</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23">
         <f>EDATE(A441,1)</f>
         <v>42856</v>
@@ -13410,7 +13411,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="23">
         <f t="shared" si="4"/>
         <v>42887</v>
@@ -13435,7 +13436,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23">
         <f t="shared" si="4"/>
         <v>42917</v>
@@ -13456,7 +13457,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23">
         <f t="shared" si="4"/>
         <v>42948</v>
@@ -13477,7 +13478,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23">
         <f t="shared" si="4"/>
         <v>42979</v>
@@ -13498,7 +13499,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23">
         <f>EDATE(A447,1)</f>
         <v>43009</v>
@@ -13519,7 +13520,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23">
         <f t="shared" ref="A449:A450" si="5">EDATE(A448,1)</f>
         <v>43040</v>
@@ -13540,7 +13541,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="23">
         <f t="shared" si="5"/>
         <v>43070</v>
@@ -13567,7 +13568,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="23"/>
       <c r="B451" s="20" t="s">
         <v>51</v>
@@ -13587,7 +13588,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="48" t="s">
         <v>46</v>
       </c>
@@ -13609,7 +13610,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>43101</v>
       </c>
@@ -13635,7 +13636,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>43132</v>
       </c>
@@ -13655,7 +13656,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>43160</v>
       </c>
@@ -13681,7 +13682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>43191</v>
       </c>
@@ -13701,7 +13702,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>43221</v>
       </c>
@@ -13721,7 +13722,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>43252</v>
       </c>
@@ -13745,7 +13746,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>43282</v>
       </c>
@@ -13765,7 +13766,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>43313</v>
       </c>
@@ -13785,7 +13786,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>43344</v>
       </c>
@@ -13805,7 +13806,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>43374</v>
       </c>
@@ -13829,7 +13830,7 @@
         <v>43401</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>43405</v>
       </c>
@@ -13849,7 +13850,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>43435</v>
       </c>
@@ -13873,7 +13874,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>52</v>
@@ -13897,7 +13898,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="48" t="s">
         <v>54</v>
       </c>
@@ -13915,7 +13916,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>43466</v>
       </c>
@@ -13941,7 +13942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43497</v>
       </c>
@@ -13961,7 +13962,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>43525</v>
       </c>
@@ -13981,7 +13982,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43556</v>
       </c>
@@ -14007,7 +14008,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>43586</v>
       </c>
@@ -14027,7 +14028,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>43617</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43647</v>
       </c>
@@ -14071,7 +14072,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43678</v>
       </c>
@@ -14097,7 +14098,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43709</v>
       </c>
@@ -14117,7 +14118,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>43739</v>
       </c>
@@ -14137,7 +14138,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>43770</v>
       </c>
@@ -14157,7 +14158,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>43800</v>
       </c>
@@ -14183,7 +14184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>59</v>
@@ -14205,7 +14206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="48" t="s">
         <v>61</v>
       </c>
@@ -14223,7 +14224,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>43831</v>
       </c>
@@ -14243,7 +14244,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>43862</v>
       </c>
@@ -14267,7 +14268,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>43891</v>
       </c>
@@ -14287,7 +14288,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>43922</v>
       </c>
@@ -14307,7 +14308,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>43952</v>
       </c>
@@ -14327,7 +14328,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>43983</v>
       </c>
@@ -14347,7 +14348,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>44013</v>
       </c>
@@ -14367,7 +14368,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>44044</v>
       </c>
@@ -14387,7 +14388,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44075</v>
       </c>
@@ -14413,7 +14414,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>49</v>
@@ -14435,7 +14436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>44105</v>
       </c>
@@ -14455,7 +14456,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>44136</v>
       </c>
@@ -14475,7 +14476,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>44166</v>
       </c>
@@ -14499,7 +14500,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="48" t="s">
         <v>66</v>
       </c>
@@ -14517,7 +14518,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>44197</v>
       </c>
@@ -14537,7 +14538,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>44228</v>
       </c>
@@ -14557,7 +14558,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>44256</v>
       </c>
@@ -14577,7 +14578,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>44287</v>
       </c>
@@ -14597,7 +14598,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>44317</v>
       </c>
@@ -14617,7 +14618,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>44348</v>
       </c>
@@ -14637,7 +14638,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>44378</v>
       </c>
@@ -14657,7 +14658,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>44409</v>
       </c>
@@ -14677,7 +14678,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>44440</v>
       </c>
@@ -14697,7 +14698,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>44470</v>
       </c>
@@ -14717,7 +14718,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>44501</v>
       </c>
@@ -14737,7 +14738,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>44531</v>
       </c>
@@ -14761,7 +14762,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="48" t="s">
         <v>67</v>
       </c>
@@ -14779,7 +14780,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f>EDATE(A506,1)</f>
         <v>44562</v>
@@ -14800,7 +14801,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>44593</v>
       </c>
@@ -14820,7 +14821,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>44621</v>
       </c>
@@ -14840,7 +14841,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>44652</v>
       </c>
@@ -14866,7 +14867,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>44682</v>
       </c>
@@ -14892,7 +14893,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>44713</v>
       </c>
@@ -14916,7 +14917,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>276</v>
@@ -14936,7 +14937,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="50"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44743</v>
       </c>
@@ -14956,7 +14957,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>44774</v>
       </c>
@@ -14982,7 +14983,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>44805</v>
       </c>
@@ -15006,7 +15007,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>44835</v>
       </c>
@@ -15032,7 +15033,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>44866</v>
       </c>
@@ -15056,7 +15057,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>68</v>
@@ -15078,7 +15079,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>274</v>
@@ -15098,7 +15099,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="50"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>44896</v>
       </c>
@@ -15124,7 +15125,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>69</v>
@@ -15146,7 +15147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>273</v>
@@ -15166,7 +15167,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="48" t="s">
         <v>71</v>
       </c>
@@ -15184,7 +15185,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>44927</v>
       </c>
@@ -15210,7 +15211,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>44958</v>
       </c>
@@ -15236,7 +15237,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>44986</v>
       </c>
@@ -15262,7 +15263,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>45017</v>
       </c>
@@ -15282,7 +15283,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>45047</v>
       </c>
@@ -15308,20 +15309,22 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>45078</v>
       </c>
       <c r="B531" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C531" s="13"/>
+      <c r="C531" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D531" s="39"/>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
-      <c r="G531" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G531" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H531" s="39"/>
       <c r="I531" s="9"/>
@@ -15330,7 +15333,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>57</v>
@@ -15352,7 +15355,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>57</v>
@@ -15374,25 +15377,33 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>45108</v>
       </c>
-      <c r="B534" s="20"/>
-      <c r="C534" s="13"/>
+      <c r="B534" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C534" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D534" s="39"/>
       <c r="E534" s="9"/>
       <c r="F534" s="20"/>
-      <c r="G534" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H534" s="39"/>
+      <c r="G534" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H534" s="39">
+        <v>1</v>
+      </c>
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
-      <c r="K534" s="20"/>
-    </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K534" s="50">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>45139</v>
       </c>
@@ -15410,7 +15421,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>45170</v>
       </c>
@@ -15428,7 +15439,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>45200</v>
       </c>
@@ -15446,7 +15457,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>45231</v>
       </c>
@@ -15464,7 +15475,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>45261</v>
       </c>
@@ -15482,7 +15493,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>45292</v>
       </c>
@@ -15500,7 +15511,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>45323</v>
       </c>
@@ -15518,7 +15529,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>45352</v>
       </c>
@@ -15536,7 +15547,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>45383</v>
       </c>
@@ -15554,7 +15565,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>45413</v>
       </c>
@@ -15572,7 +15583,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>45444</v>
       </c>
@@ -15590,7 +15601,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>45474</v>
       </c>
@@ -15608,7 +15619,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>45505</v>
       </c>
@@ -15626,7 +15637,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>45536</v>
       </c>
@@ -15644,7 +15655,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>45566</v>
       </c>
@@ -15662,7 +15673,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>45597</v>
       </c>
@@ -15680,7 +15691,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>45627</v>
       </c>
@@ -15698,7 +15709,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>45658</v>
       </c>
@@ -15716,7 +15727,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>45689</v>
       </c>
@@ -15734,7 +15745,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>45717</v>
       </c>
@@ -15752,7 +15763,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>45748</v>
       </c>
@@ -15770,7 +15781,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>45778</v>
       </c>
@@ -15788,7 +15799,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>45809</v>
       </c>
@@ -15806,7 +15817,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>45839</v>
       </c>
@@ -15824,7 +15835,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>45870</v>
       </c>
@@ -15842,7 +15853,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>45901</v>
       </c>
@@ -15860,7 +15871,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>45931</v>
       </c>
@@ -15878,7 +15889,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>45962</v>
       </c>
@@ -15896,7 +15907,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>45992</v>
       </c>
@@ -15914,7 +15925,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>46023</v>
       </c>
@@ -15932,7 +15943,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>46054</v>
       </c>
@@ -15950,7 +15961,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>46082</v>
       </c>
@@ -15968,7 +15979,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>46113</v>
       </c>
@@ -15986,7 +15997,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>46143</v>
       </c>
@@ -16004,7 +16015,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>46174</v>
       </c>
@@ -16022,7 +16033,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>46204</v>
       </c>
@@ -16040,7 +16051,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>46235</v>
       </c>
@@ -16058,7 +16069,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>46266</v>
       </c>
@@ -16076,7 +16087,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>46296</v>
       </c>
@@ -16094,7 +16105,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>46327</v>
       </c>
@@ -16112,7 +16123,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>46357</v>
       </c>
@@ -16130,7 +16141,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16146,7 +16157,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16162,7 +16173,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16178,7 +16189,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="41"/>
       <c r="B579" s="15"/>
       <c r="C579" s="42"/>
@@ -16209,10 +16220,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16235,28 +16246,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16269,7 +16280,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16298,7 +16309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -16324,17 +16335,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16355,7 +16366,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16382,7 +16393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16408,7 +16419,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16434,7 +16445,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16460,7 +16471,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16486,7 +16497,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16512,7 +16523,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16538,7 +16549,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16564,7 +16575,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16584,7 +16595,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16604,7 +16615,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16624,7 +16635,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16645,7 +16656,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16666,7 +16677,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16687,7 +16698,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16708,7 +16719,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16729,7 +16740,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16750,7 +16761,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16771,7 +16782,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16792,7 +16803,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16813,7 +16824,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16834,7 +16845,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16855,7 +16866,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16876,7 +16887,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16897,7 +16908,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16918,7 +16929,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16939,7 +16950,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16960,7 +16971,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16981,7 +16992,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17002,7 +17013,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17023,7 +17034,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17044,7 +17055,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17053,7 +17064,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17062,7 +17073,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17071,7 +17082,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17080,7 +17091,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17089,7 +17100,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17098,7 +17109,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17107,7 +17118,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17116,7 +17127,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17125,7 +17136,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17134,7 +17145,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17143,7 +17154,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17152,7 +17163,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17161,7 +17172,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17170,7 +17181,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17179,7 +17190,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17188,7 +17199,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17197,7 +17208,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17206,7 +17217,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17215,7 +17226,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17224,7 +17235,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17233,7 +17244,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17242,7 +17253,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17251,7 +17262,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17260,7 +17271,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17269,7 +17280,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17278,7 +17289,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17287,7 +17298,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17296,7 +17307,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17305,7 +17316,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/SP-VMO/MONTENEGRO, HENRY DE SAGUN.xlsx
+++ b/REGULAR/SP-VMO/MONTENEGRO, HENRY DE SAGUN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2E7118-F9E6-41B9-89D0-793D699E838D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="279">
   <si>
     <t>PERIOD</t>
   </si>
@@ -869,12 +868,15 @@
   </si>
   <si>
     <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1585,7 +1587,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1630,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1694,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,7 +1754,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1820,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1883,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1979,7 +1981,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2040,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,7 +2105,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,7 +2148,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2223,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2409,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2475,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,7 +2533,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,7 +2599,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2655,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +2730,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2773,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2837,7 +2839,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2895,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2972,7 +2974,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2989,26 +2991,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K579" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K579" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K579" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K579"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3315,7 +3317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3325,7 +3327,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3333,34 +3335,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K579"/>
+  <dimension ref="A2:M579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A516" activePane="bottomLeft"/>
-      <selection activeCell="P8" sqref="P8"/>
-      <selection pane="bottomLeft" activeCell="K535" sqref="K535"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1800" topLeftCell="A516"/>
+      <selection activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="F540" sqref="F540"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3381,7 +3383,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3401,7 +3403,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3423,7 +3425,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3431,7 +3433,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3444,7 +3446,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3461,7 +3463,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3505,7 +3507,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>108.97499999999991</v>
+        <v>110.22499999999991</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3515,12 +3517,16 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63.75</v>
+        <v>64</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="46">
+        <f>SUM(E9,I9)</f>
+        <v>174.22499999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>74</v>
       </c>
@@ -3541,8 +3547,11 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>36861</v>
       </c>
@@ -3557,7 +3566,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>75</v>
       </c>
@@ -3572,7 +3581,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>36892</v>
       </c>
@@ -3592,7 +3601,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>36923</v>
@@ -3613,7 +3622,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" ref="A15:A91" si="0">EDATE(A14,1)</f>
         <v>36951</v>
@@ -3634,7 +3643,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -3655,7 +3664,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>37012</v>
@@ -3676,7 +3685,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -3697,7 +3706,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -3718,7 +3727,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -3739,7 +3748,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>37135</v>
@@ -3760,7 +3769,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>37165</v>
@@ -3781,7 +3790,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>37196</v>
@@ -3802,7 +3811,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>37226</v>
@@ -3827,7 +3836,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>76</v>
       </c>
@@ -3849,7 +3858,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>37257</v>
@@ -3870,7 +3879,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>37288</v>
@@ -3891,7 +3900,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>37316</v>
@@ -3912,7 +3921,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>37347</v>
@@ -3933,7 +3942,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>37377</v>
@@ -3954,7 +3963,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>37408</v>
@@ -3975,7 +3984,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -3996,7 +4005,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>37469</v>
@@ -4017,7 +4026,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -4038,7 +4047,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>37530</v>
@@ -4065,7 +4074,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>99</v>
@@ -4085,7 +4094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A35,1)</f>
         <v>37561</v>
@@ -4106,7 +4115,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>37591</v>
@@ -4131,7 +4140,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>77</v>
       </c>
@@ -4153,7 +4162,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f>EDATE(A38,1)</f>
         <v>37622</v>
@@ -4174,7 +4183,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>37653</v>
@@ -4195,7 +4204,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>37681</v>
@@ -4222,7 +4231,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>49</v>
@@ -4244,7 +4253,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f>EDATE(A42,1)</f>
         <v>37712</v>
@@ -4265,7 +4274,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>37742</v>
@@ -4286,7 +4295,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -4307,7 +4316,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -4334,7 +4343,7 @@
         <v>37823</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -4355,7 +4364,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -4382,7 +4391,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>101</v>
@@ -4402,7 +4411,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f>EDATE(A49,1)</f>
         <v>37895</v>
@@ -4429,7 +4438,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>102</v>
@@ -4449,7 +4458,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f>EDATE(A51,1)</f>
         <v>37926</v>
@@ -4476,7 +4485,7 @@
         <v>37939</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -4498,7 +4507,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>103</v>
@@ -4518,7 +4527,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f>EDATE(A53,1)</f>
         <v>37956</v>
@@ -4543,7 +4552,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>107</v>
@@ -4560,7 +4569,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>78</v>
       </c>
@@ -4582,7 +4591,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f>EDATE(A56,1)</f>
         <v>37987</v>
@@ -4607,7 +4616,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>38018</v>
@@ -4632,7 +4641,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>38047</v>
@@ -4659,7 +4668,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>113</v>
@@ -4676,7 +4685,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f>EDATE(A61,1)</f>
         <v>38078</v>
@@ -4703,7 +4712,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>38108</v>
@@ -4728,7 +4737,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f t="shared" si="0"/>
         <v>38139</v>
@@ -4749,7 +4758,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="0"/>
         <v>38169</v>
@@ -4776,7 +4785,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>111</v>
@@ -4796,7 +4805,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f>EDATE(A66,1)</f>
         <v>38200</v>
@@ -4823,7 +4832,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>57</v>
@@ -4842,7 +4851,7 @@
         <v>38219</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>115</v>
@@ -4859,7 +4868,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f>EDATE(A68,1)</f>
         <v>38231</v>
@@ -4884,7 +4893,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" si="0"/>
         <v>38261</v>
@@ -4911,7 +4920,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="0"/>
         <v>38292</v>
@@ -4936,7 +4945,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f t="shared" si="0"/>
         <v>38322</v>
@@ -4961,7 +4970,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>65</v>
@@ -4978,7 +4987,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>79</v>
       </c>
@@ -5000,7 +5009,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f>EDATE(A74,1)</f>
         <v>38353</v>
@@ -5027,7 +5036,7 @@
         <v>38357</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>57</v>
@@ -5049,7 +5058,7 @@
         <v>38370</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f>EDATE(A77,1)</f>
         <v>38384</v>
@@ -5070,7 +5079,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="0"/>
         <v>38412</v>
@@ -5097,7 +5106,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>69</v>
@@ -5119,7 +5128,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f>EDATE(A80,1)</f>
         <v>38443</v>
@@ -5140,7 +5149,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="0"/>
         <v>38473</v>
@@ -5161,7 +5170,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="0"/>
         <v>38504</v>
@@ -5188,7 +5197,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>59</v>
@@ -5208,7 +5217,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f>EDATE(A84,1)</f>
         <v>38534</v>
@@ -5229,7 +5238,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="0"/>
         <v>38565</v>
@@ -5256,7 +5265,7 @@
         <v>38567</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>125</v>
@@ -5275,7 +5284,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f>EDATE(A87,1)</f>
         <v>38596</v>
@@ -5302,7 +5311,7 @@
         <v>38624</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f t="shared" si="0"/>
         <v>38626</v>
@@ -5329,7 +5338,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f t="shared" si="0"/>
         <v>38657</v>
@@ -5356,7 +5365,7 @@
         <v>38658</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>127</v>
@@ -5378,7 +5387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f>EDATE(A91,1)</f>
         <v>38687</v>
@@ -5405,7 +5414,7 @@
         <v>38702</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
         <v>80</v>
       </c>
@@ -5423,7 +5432,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f>EDATE(A93,1)</f>
         <v>38718</v>
@@ -5450,7 +5459,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>128</v>
@@ -5470,7 +5479,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f>EDATE(A95,1)</f>
         <v>38749</v>
@@ -5497,7 +5506,7 @@
         <v>38749</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>57</v>
@@ -5519,7 +5528,7 @@
         <v>38755</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>129</v>
@@ -5539,7 +5548,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f>EDATE(A97,1)</f>
         <v>38777</v>
@@ -5566,7 +5575,7 @@
         <v>38777</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>52</v>
@@ -5588,7 +5597,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>47</v>
@@ -5610,7 +5619,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>134</v>
@@ -5630,7 +5639,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f>EDATE(A100,1)</f>
         <v>38808</v>
@@ -5657,7 +5666,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>57</v>
@@ -5679,7 +5688,7 @@
         <v>38833</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>135</v>
@@ -5699,7 +5708,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f>EDATE(A104,1)</f>
         <v>38838</v>
@@ -5726,7 +5735,7 @@
         <v>38846</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>57</v>
@@ -5748,7 +5757,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>57</v>
@@ -5770,7 +5779,7 @@
         <v>38856</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>51</v>
@@ -5790,7 +5799,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>136</v>
@@ -5807,7 +5816,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f>EDATE(A107,1)</f>
         <v>38869</v>
@@ -5834,7 +5843,7 @@
         <v>38869</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>137</v>
@@ -5854,7 +5863,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f>EDATE(A112,1)</f>
         <v>38899</v>
@@ -5881,7 +5890,7 @@
         <v>38903</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>57</v>
@@ -5903,7 +5912,7 @@
         <v>38901</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>57</v>
@@ -5925,7 +5934,7 @@
         <v>38918</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>57</v>
@@ -5947,7 +5956,7 @@
         <v>38922</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>120</v>
@@ -5967,7 +5976,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f>EDATE(A114,1)</f>
         <v>38930</v>
@@ -5994,7 +6003,7 @@
         <v>38930</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>57</v>
@@ -6016,7 +6025,7 @@
         <v>38944</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>47</v>
@@ -6036,7 +6045,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f>EDATE(A119,1)</f>
         <v>38961</v>
@@ -6063,7 +6072,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>140</v>
@@ -6083,7 +6092,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="50"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>57</v>
@@ -6105,7 +6114,7 @@
         <v>38981</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f>EDATE(A122,1)</f>
         <v>38991</v>
@@ -6132,7 +6141,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>57</v>
@@ -6154,7 +6163,7 @@
         <v>38993</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>57</v>
@@ -6174,7 +6183,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>57</v>
@@ -6196,7 +6205,7 @@
         <v>39007</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f>EDATE(A125,1)</f>
         <v>39022</v>
@@ -6223,7 +6232,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>57</v>
@@ -6245,7 +6254,7 @@
         <v>39030</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>57</v>
@@ -6267,7 +6276,7 @@
         <v>39042</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>57</v>
@@ -6289,7 +6298,7 @@
         <v>39045</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f>EDATE(A129,1)</f>
         <v>39052</v>
@@ -6316,7 +6325,7 @@
         <v>39066</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>95</v>
@@ -6336,7 +6345,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>81</v>
       </c>
@@ -6358,7 +6367,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f>EDATE(A133,1)</f>
         <v>39083</v>
@@ -6385,7 +6394,7 @@
         <v>39080</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>142</v>
@@ -6405,7 +6414,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f>EDATE(A136,1)</f>
         <v>39114</v>
@@ -6432,7 +6441,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>57</v>
@@ -6454,7 +6463,7 @@
         <v>39108</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>57</v>
@@ -6476,7 +6485,7 @@
         <v>39121</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>57</v>
@@ -6498,7 +6507,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>49</v>
@@ -6520,7 +6529,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>144</v>
@@ -6540,7 +6549,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="50"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f>EDATE(A138,1)</f>
         <v>39142</v>
@@ -6567,7 +6576,7 @@
         <v>39143</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>49</v>
@@ -6589,7 +6598,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>145</v>
@@ -6609,7 +6618,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>57</v>
@@ -6631,7 +6640,7 @@
         <v>39182</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>146</v>
@@ -6653,7 +6662,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <f>EDATE(A144,1)</f>
         <v>39173</v>
@@ -6680,7 +6689,7 @@
         <v>39197</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>57</v>
@@ -6702,7 +6711,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>147</v>
@@ -6722,7 +6731,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>57</v>
@@ -6744,7 +6753,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>57</v>
@@ -6766,7 +6775,7 @@
         <v>39206</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <f>EDATE(A149,1)</f>
         <v>39203</v>
@@ -6793,7 +6802,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>148</v>
@@ -6813,7 +6822,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>96</v>
@@ -6835,7 +6844,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <f>EDATE(A154,1)</f>
         <v>39234</v>
@@ -6862,7 +6871,7 @@
         <v>39234</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>51</v>
@@ -6882,7 +6891,7 @@
         <v>39240</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>57</v>
@@ -6904,7 +6913,7 @@
         <v>39248</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>149</v>
@@ -6924,7 +6933,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>57</v>
@@ -6946,7 +6955,7 @@
         <v>39241</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f>EDATE(A157,1)</f>
         <v>39264</v>
@@ -6973,7 +6982,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>57</v>
@@ -6995,7 +7004,7 @@
         <v>39281</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>57</v>
@@ -7017,7 +7026,7 @@
         <v>39287</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <f>EDATE(A162,1)</f>
         <v>39295</v>
@@ -7044,7 +7053,7 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>49</v>
@@ -7066,7 +7075,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>116</v>
@@ -7086,7 +7095,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>156</v>
@@ -7104,7 +7113,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <f>EDATE(A165,1)</f>
         <v>39326</v>
@@ -7131,7 +7140,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>57</v>
@@ -7153,7 +7162,7 @@
         <v>39337</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>49</v>
@@ -7175,7 +7184,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>57</v>
@@ -7197,7 +7206,7 @@
         <v>39343</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <f>EDATE(A169,1)</f>
         <v>39356</v>
@@ -7224,7 +7233,7 @@
         <v>39377</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>57</v>
@@ -7246,7 +7255,7 @@
         <v>39364</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f>EDATE(A173,1)</f>
         <v>39387</v>
@@ -7273,7 +7282,7 @@
         <v>39380</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>57</v>
@@ -7295,7 +7304,7 @@
         <v>39407</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>39417</v>
@@ -7322,7 +7331,7 @@
         <v>39426</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="48" t="s">
         <v>82</v>
       </c>
@@ -7340,7 +7349,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f>EDATE(A177,1)</f>
         <v>39448</v>
@@ -7367,7 +7376,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>57</v>
@@ -7386,7 +7395,7 @@
         <v>39469</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>157</v>
@@ -7403,7 +7412,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <f>EDATE(A179,1)</f>
         <v>39479</v>
@@ -7430,7 +7439,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>49</v>
@@ -7452,7 +7461,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>166</v>
@@ -7472,7 +7481,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="50"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <f>EDATE(A182,1)</f>
         <v>39508</v>
@@ -7499,7 +7508,7 @@
         <v>39514</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>52</v>
@@ -7521,7 +7530,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>51</v>
@@ -7541,7 +7550,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>167</v>
@@ -7561,7 +7570,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <f>EDATE(A185,1)</f>
         <v>39539</v>
@@ -7588,7 +7597,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>168</v>
@@ -7608,7 +7617,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <f>EDATE(A189,1)</f>
         <v>39569</v>
@@ -7635,7 +7644,7 @@
         <v>39583</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>57</v>
@@ -7657,7 +7666,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>169</v>
@@ -7677,7 +7686,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <f>EDATE(A191,1)</f>
         <v>39600</v>
@@ -7704,7 +7713,7 @@
         <v>39622</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>170</v>
@@ -7724,7 +7733,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f>EDATE(A194,1)</f>
         <v>39630</v>
@@ -7751,7 +7760,7 @@
         <v>39631</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>57</v>
@@ -7773,7 +7782,7 @@
         <v>39645</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>171</v>
@@ -7793,7 +7802,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>39661</v>
@@ -7820,7 +7829,7 @@
         <v>39673</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>57</v>
@@ -7839,7 +7848,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>172</v>
@@ -7856,7 +7865,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <f>EDATE(A199,1)</f>
         <v>39692</v>
@@ -7883,7 +7892,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>57</v>
@@ -7902,7 +7911,7 @@
         <v>39715</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>177</v>
@@ -7919,7 +7928,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f>EDATE(A202,1)</f>
         <v>39722</v>
@@ -7946,7 +7955,7 @@
         <v>39741</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>57</v>
@@ -7968,7 +7977,7 @@
         <v>39750</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>178</v>
@@ -7988,7 +7997,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <f>EDATE(A205,1)</f>
         <v>39753</v>
@@ -8013,7 +8022,7 @@
         <v>39777</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>57</v>
@@ -8035,7 +8044,7 @@
         <v>39784</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>179</v>
@@ -8055,7 +8064,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <f>EDATE(A208,1)</f>
         <v>39783</v>
@@ -8082,7 +8091,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>180</v>
@@ -8102,7 +8111,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="48" t="s">
         <v>83</v>
       </c>
@@ -8120,7 +8129,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <f>EDATE(A211,1)</f>
         <v>39814</v>
@@ -8147,7 +8156,7 @@
         <v>39820</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>57</v>
@@ -8169,7 +8178,7 @@
         <v>39827</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>57</v>
@@ -8191,7 +8200,7 @@
         <v>39841</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>169</v>
@@ -8211,7 +8220,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <f>EDATE(A214,1)</f>
         <v>39845</v>
@@ -8238,7 +8247,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>68</v>
@@ -8258,7 +8267,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>181</v>
@@ -8278,7 +8287,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f>EDATE(A218,1)</f>
         <v>39873</v>
@@ -8305,7 +8314,7 @@
         <v>39874</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>52</v>
@@ -8327,7 +8336,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>51</v>
@@ -8347,7 +8356,7 @@
         <v>39896</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>185</v>
@@ -8367,7 +8376,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="50"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <f>EDATE(A221,1)</f>
         <v>39904</v>
@@ -8394,7 +8403,7 @@
         <v>39926</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>137</v>
@@ -8414,7 +8423,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <f>EDATE(A225,1)</f>
         <v>39934</v>
@@ -8439,7 +8448,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f t="shared" ref="A228:A295" si="1">EDATE(A227,1)</f>
         <v>39965</v>
@@ -8464,7 +8473,7 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>57</v>
@@ -8486,7 +8495,7 @@
         <v>39974</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>49</v>
@@ -8506,7 +8515,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>187</v>
@@ -8528,7 +8537,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f>EDATE(A228,1)</f>
         <v>39995</v>
@@ -8555,7 +8564,7 @@
         <v>40023</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>188</v>
@@ -8575,7 +8584,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <f>EDATE(A232,1)</f>
         <v>40026</v>
@@ -8602,7 +8611,7 @@
         <v>40045</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>68</v>
@@ -8624,7 +8633,7 @@
         <v>40052</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>40057</v>
@@ -8651,7 +8660,7 @@
         <v>40066</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>189</v>
@@ -8671,7 +8680,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <f>EDATE(A236,1)</f>
         <v>40087</v>
@@ -8698,7 +8707,7 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>57</v>
@@ -8720,7 +8729,7 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>57</v>
@@ -8742,7 +8751,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>190</v>
@@ -8762,7 +8771,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <f>EDATE(A238,1)</f>
         <v>40118</v>
@@ -8789,7 +8798,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>191</v>
@@ -8809,7 +8818,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <f>EDATE(A242,1)</f>
         <v>40148</v>
@@ -8830,7 +8839,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="48" t="s">
         <v>84</v>
       </c>
@@ -8848,7 +8857,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f>EDATE(A244,1)</f>
         <v>40179</v>
@@ -8873,7 +8882,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <f t="shared" si="1"/>
         <v>40210</v>
@@ -8900,7 +8909,7 @@
         <v>40212</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>68</v>
@@ -8922,7 +8931,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>195</v>
@@ -8942,7 +8951,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <f>EDATE(A247,1)</f>
         <v>40238</v>
@@ -8969,7 +8978,7 @@
         <v>40238</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>68</v>
@@ -8991,7 +9000,7 @@
         <v>40263</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>196</v>
@@ -9011,7 +9020,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <f>EDATE(A250,1)</f>
         <v>40269</v>
@@ -9038,7 +9047,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>197</v>
@@ -9058,7 +9067,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <f>EDATE(A253,1)</f>
         <v>40299</v>
@@ -9085,7 +9094,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>57</v>
@@ -9107,7 +9116,7 @@
         <v>40316</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>51</v>
@@ -9127,7 +9136,7 @@
         <v>40336</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>198</v>
@@ -9147,7 +9156,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <f>EDATE(A255,1)</f>
         <v>40330</v>
@@ -9174,7 +9183,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>57</v>
@@ -9196,7 +9205,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f>EDATE(A259,1)</f>
         <v>40360</v>
@@ -9223,7 +9232,7 @@
         <v>40375</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <f t="shared" si="1"/>
         <v>40391</v>
@@ -9250,7 +9259,7 @@
         <v>40408</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>201</v>
@@ -9270,7 +9279,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <f>EDATE(A262,1)</f>
         <v>40422</v>
@@ -9297,7 +9306,7 @@
         <v>40449</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>101</v>
@@ -9317,7 +9326,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f>EDATE(A264,1)</f>
         <v>40452</v>
@@ -9344,7 +9353,7 @@
         <v>40470</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>51</v>
@@ -9364,7 +9373,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>202</v>
@@ -9384,7 +9393,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f>EDATE(A266,1)</f>
         <v>40483</v>
@@ -9411,7 +9420,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>57</v>
@@ -9433,7 +9442,7 @@
         <v>40508</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>95</v>
@@ -9455,7 +9464,7 @@
         <v>40522</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>203</v>
@@ -9475,7 +9484,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <f>EDATE(A269,1)</f>
         <v>40513</v>
@@ -9502,7 +9511,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>204</v>
@@ -9522,7 +9531,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="48" t="s">
         <v>85</v>
       </c>
@@ -9544,7 +9553,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <f>EDATE(A273,1)</f>
         <v>40544</v>
@@ -9569,7 +9578,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <f t="shared" si="1"/>
         <v>40575</v>
@@ -9596,7 +9605,7 @@
         <v>40577</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>57</v>
@@ -9618,7 +9627,7 @@
         <v>40595</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>205</v>
@@ -9638,7 +9647,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f>EDATE(A277,1)</f>
         <v>40603</v>
@@ -9665,7 +9674,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>57</v>
@@ -9687,7 +9696,7 @@
         <v>40630</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>164</v>
@@ -9707,7 +9716,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>211</v>
@@ -9724,7 +9733,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f>EDATE(A280,1)</f>
         <v>40634</v>
@@ -9751,7 +9760,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>212</v>
@@ -9771,7 +9780,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <f>EDATE(A284,1)</f>
         <v>40664</v>
@@ -9798,7 +9807,7 @@
         <v>40667</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>51</v>
@@ -9818,7 +9827,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>92</v>
@@ -9840,7 +9849,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>57</v>
@@ -9862,7 +9871,7 @@
         <v>40701</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>170</v>
@@ -9882,7 +9891,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f>EDATE(A286,1)</f>
         <v>40695</v>
@@ -9909,7 +9918,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>57</v>
@@ -9931,7 +9940,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>213</v>
@@ -9951,7 +9960,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f>EDATE(A291,1)</f>
         <v>40725</v>
@@ -9972,7 +9981,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <f t="shared" si="1"/>
         <v>40756</v>
@@ -9999,7 +10008,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>214</v>
@@ -10019,7 +10028,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f>EDATE(A295,1)</f>
         <v>40787</v>
@@ -10046,7 +10055,7 @@
         <v>40787</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>57</v>
@@ -10068,7 +10077,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>95</v>
@@ -10090,7 +10099,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>215</v>
@@ -10110,7 +10119,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <f>EDATE(A297,1)</f>
         <v>40817</v>
@@ -10137,7 +10146,7 @@
         <v>40819</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>57</v>
@@ -10159,7 +10168,7 @@
         <v>40827</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>57</v>
@@ -10181,7 +10190,7 @@
         <v>40843</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>220</v>
@@ -10201,7 +10210,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="50"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <f>EDATE(A301,1)</f>
         <v>40848</v>
@@ -10228,7 +10237,7 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>57</v>
@@ -10250,7 +10259,7 @@
         <v>40869</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>221</v>
@@ -10270,7 +10279,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <f>EDATE(A305,1)</f>
         <v>40878</v>
@@ -10297,7 +10306,7 @@
         <v>40885</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>57</v>
@@ -10319,7 +10328,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>222</v>
@@ -10339,7 +10348,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="48" t="s">
         <v>86</v>
       </c>
@@ -10361,7 +10370,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <f>EDATE(A308,1)</f>
         <v>40909</v>
@@ -10388,7 +10397,7 @@
         <v>40932</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>226</v>
@@ -10408,7 +10417,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f>EDATE(A312,1)</f>
         <v>40940</v>
@@ -10435,7 +10444,7 @@
         <v>40942</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>95</v>
@@ -10457,7 +10466,7 @@
         <v>40961</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>69</v>
@@ -10479,7 +10488,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>223</v>
@@ -10499,7 +10508,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <f>EDATE(A314,1)</f>
         <v>40969</v>
@@ -10524,7 +10533,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <f t="shared" ref="A319:A409" si="2">EDATE(A318,1)</f>
         <v>41000</v>
@@ -10551,7 +10560,7 @@
         <v>41010</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>57</v>
@@ -10573,7 +10582,7 @@
         <v>41024</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>57</v>
@@ -10595,7 +10604,7 @@
         <v>41038</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>57</v>
@@ -10617,7 +10626,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>253</v>
@@ -10637,7 +10646,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="50"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <f>EDATE(A319,1)</f>
         <v>41030</v>
@@ -10662,7 +10671,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>254</v>
@@ -10682,7 +10691,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <f>EDATE(A324,1)</f>
         <v>41061</v>
@@ -10709,7 +10718,7 @@
         <v>41071</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>57</v>
@@ -10731,7 +10740,7 @@
         <v>41102</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>255</v>
@@ -10751,7 +10760,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <f>EDATE(A326,1)</f>
         <v>41091</v>
@@ -10778,7 +10787,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>57</v>
@@ -10800,7 +10809,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>256</v>
@@ -10820,7 +10829,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <f>EDATE(A329,1)</f>
         <v>41122</v>
@@ -10847,7 +10856,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>57</v>
@@ -10869,7 +10878,7 @@
         <v>41145</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <f>EDATE(A332,1)</f>
         <v>41153</v>
@@ -10896,7 +10905,7 @@
         <v>41172</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>257</v>
@@ -10916,7 +10925,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <f>EDATE(A334,1)</f>
         <v>41183</v>
@@ -10943,7 +10952,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>258</v>
@@ -10963,7 +10972,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <f>EDATE(A336,1)</f>
         <v>41214</v>
@@ -10990,7 +10999,7 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>57</v>
@@ -11012,7 +11021,7 @@
         <v>41256</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>259</v>
@@ -11032,7 +11041,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f>EDATE(A338,1)</f>
         <v>41244</v>
@@ -11059,7 +11068,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="48" t="s">
         <v>87</v>
       </c>
@@ -11081,7 +11090,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>41275</v>
@@ -11102,7 +11111,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <f t="shared" si="2"/>
         <v>41306</v>
@@ -11129,7 +11138,7 @@
         <v>41318</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>57</v>
@@ -11151,7 +11160,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f>EDATE(A344,1)</f>
         <v>41334</v>
@@ -11178,7 +11187,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>59</v>
@@ -11198,7 +11207,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <f>EDATE(A346,1)</f>
         <v>41365</v>
@@ -11225,7 +11234,7 @@
         <v>41375</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>140</v>
@@ -11247,7 +11256,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <f>EDATE(A348,1)</f>
         <v>41395</v>
@@ -11272,7 +11281,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f t="shared" si="2"/>
         <v>41426</v>
@@ -11299,7 +11308,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <f t="shared" si="2"/>
         <v>41456</v>
@@ -11326,7 +11335,7 @@
         <v>41473</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>57</v>
@@ -11348,7 +11357,7 @@
         <v>41479</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <f>EDATE(A352,1)</f>
         <v>41487</v>
@@ -11375,7 +11384,7 @@
         <v>41492</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>57</v>
@@ -11397,7 +11406,7 @@
         <v>41498</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <f>EDATE(A354,1)</f>
         <v>41518</v>
@@ -11424,7 +11433,7 @@
         <v>41506</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>57</v>
@@ -11446,7 +11455,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <f>EDATE(A356,1)</f>
         <v>41548</v>
@@ -11473,7 +11482,7 @@
         <v>41572</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>57</v>
@@ -11495,7 +11504,7 @@
         <v>41591</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <f>EDATE(A358,1)</f>
         <v>41579</v>
@@ -11522,7 +11531,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <f t="shared" si="2"/>
         <v>41609</v>
@@ -11549,7 +11558,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>146</v>
@@ -11571,7 +11580,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="48" t="s">
         <v>88</v>
       </c>
@@ -11589,7 +11598,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <f>EDATE(A361,1)</f>
         <v>41640</v>
@@ -11616,7 +11625,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>262</v>
@@ -11638,7 +11647,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <f>EDATE(A364,1)</f>
         <v>41671</v>
@@ -11659,7 +11668,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <f t="shared" si="2"/>
         <v>41699</v>
@@ -11686,7 +11695,7 @@
         <v>41703</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>51</v>
@@ -11703,7 +11712,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>69</v>
@@ -11725,7 +11734,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>57</v>
@@ -11747,7 +11756,7 @@
         <v>41733</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>245</v>
@@ -11767,7 +11776,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <f>EDATE(A367,1)</f>
         <v>41730</v>
@@ -11794,7 +11803,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>168</v>
@@ -11814,7 +11823,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <f>EDATE(A372,1)</f>
         <v>41760</v>
@@ -11841,7 +11850,7 @@
         <v>41761</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>57</v>
@@ -11863,7 +11872,7 @@
         <v>41768</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>57</v>
@@ -11885,7 +11894,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>51</v>
@@ -11905,7 +11914,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>187</v>
@@ -11925,7 +11934,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <f>EDATE(A374,1)</f>
         <v>41791</v>
@@ -11946,7 +11955,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <f t="shared" si="2"/>
         <v>41821</v>
@@ -11973,7 +11982,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>246</v>
@@ -11993,7 +12002,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <f>EDATE(A380,1)</f>
         <v>41852</v>
@@ -12020,7 +12029,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>247</v>
@@ -12040,7 +12049,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <f>EDATE(A382,1)</f>
         <v>41883</v>
@@ -12067,7 +12076,7 @@
         <v>41890</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
         <v>248</v>
@@ -12087,7 +12096,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <f>EDATE(A384,1)</f>
         <v>41913</v>
@@ -12112,7 +12121,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>57</v>
@@ -12134,7 +12143,7 @@
         <v>41932</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>57</v>
@@ -12156,7 +12165,7 @@
         <v>41935</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <f>EDATE(A386,1)</f>
         <v>41944</v>
@@ -12181,7 +12190,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>242</v>
@@ -12198,7 +12207,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <f>EDATE(A389,1)</f>
         <v>41974</v>
@@ -12223,7 +12232,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="48" t="s">
         <v>89</v>
       </c>
@@ -12245,7 +12254,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <f>EDATE(A391,1)</f>
         <v>42005</v>
@@ -12272,7 +12281,7 @@
         <v>42033</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>187</v>
@@ -12292,7 +12301,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <f>EDATE(A393,1)</f>
         <v>42036</v>
@@ -12317,7 +12326,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>234</v>
@@ -12337,7 +12346,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <f>EDATE(A395,1)</f>
         <v>42064</v>
@@ -12364,7 +12373,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>235</v>
@@ -12384,7 +12393,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23">
         <f>EDATE(A397,1)</f>
         <v>42095</v>
@@ -12411,7 +12420,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>187</v>
@@ -12431,7 +12440,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23">
         <f>EDATE(A399,1)</f>
         <v>42125</v>
@@ -12456,7 +12465,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <f t="shared" si="2"/>
         <v>42156</v>
@@ -12481,7 +12490,7 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>57</v>
@@ -12503,7 +12512,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>236</v>
@@ -12523,7 +12532,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <f>EDATE(A402,1)</f>
         <v>42186</v>
@@ -12548,7 +12557,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <f t="shared" si="2"/>
         <v>42217</v>
@@ -12575,7 +12584,7 @@
         <v>42234</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>57</v>
@@ -12597,7 +12606,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <f>EDATE(A406,1)</f>
         <v>42248</v>
@@ -12618,7 +12627,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <f t="shared" si="2"/>
         <v>42278</v>
@@ -12645,7 +12654,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>49</v>
@@ -12667,7 +12676,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>228</v>
@@ -12687,7 +12696,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <f>EDATE(A409,1)</f>
         <v>42309</v>
@@ -12712,7 +12721,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>229</v>
@@ -12732,7 +12741,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <f>EDATE(A412,1)</f>
         <v>42339</v>
@@ -12759,7 +12768,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>230</v>
@@ -12779,7 +12788,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="48" t="s">
         <v>90</v>
       </c>
@@ -12801,7 +12810,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <f>EDATE(A414,1)</f>
         <v>42370</v>
@@ -12828,7 +12837,7 @@
         <v>42387</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <f t="shared" ref="A418:A433" si="3">EDATE(A417,1)</f>
         <v>42401</v>
@@ -12855,7 +12864,7 @@
         <v>42409</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>57</v>
@@ -12877,7 +12886,7 @@
         <v>42426</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>52</v>
@@ -12899,7 +12908,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>49</v>
@@ -12919,7 +12928,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <f>EDATE(A418,1)</f>
         <v>42430</v>
@@ -12940,7 +12949,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <f t="shared" si="3"/>
         <v>42461</v>
@@ -12967,7 +12976,7 @@
         <v>42466</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>57</v>
@@ -12989,7 +12998,7 @@
         <v>42489</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>57</v>
@@ -13011,7 +13020,7 @@
         <v>42485</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>57</v>
@@ -13033,7 +13042,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23">
         <f>EDATE(A423,1)</f>
         <v>42491</v>
@@ -13054,7 +13063,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <f t="shared" si="3"/>
         <v>42522</v>
@@ -13079,7 +13088,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23">
         <f t="shared" si="3"/>
         <v>42552</v>
@@ -13100,7 +13109,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <f t="shared" si="3"/>
         <v>42583</v>
@@ -13127,7 +13136,7 @@
         <v>42607</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <f t="shared" si="3"/>
         <v>42614</v>
@@ -13148,7 +13157,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <f t="shared" si="3"/>
         <v>42644</v>
@@ -13169,7 +13178,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <f t="shared" si="3"/>
         <v>42675</v>
@@ -13190,7 +13199,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <f>EDATE(A433,1)</f>
         <v>42705</v>
@@ -13215,7 +13224,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>57</v>
@@ -13232,7 +13241,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>164</v>
@@ -13247,7 +13256,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="48" t="s">
         <v>91</v>
       </c>
@@ -13266,7 +13275,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <f>EDATE(A434,1)</f>
         <v>42736</v>
@@ -13293,7 +13302,7 @@
         <v>42765</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23">
         <f t="shared" ref="A439:A447" si="4">EDATE(A438,1)</f>
         <v>42767</v>
@@ -13314,7 +13323,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <f t="shared" si="4"/>
         <v>42795</v>
@@ -13341,7 +13350,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <f t="shared" si="4"/>
         <v>42826</v>
@@ -13368,7 +13377,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>57</v>
@@ -13390,7 +13399,7 @@
         <v>42850</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23">
         <f>EDATE(A441,1)</f>
         <v>42856</v>
@@ -13411,7 +13420,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <f t="shared" si="4"/>
         <v>42887</v>
@@ -13436,7 +13445,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23">
         <f t="shared" si="4"/>
         <v>42917</v>
@@ -13457,7 +13466,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23">
         <f t="shared" si="4"/>
         <v>42948</v>
@@ -13478,7 +13487,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23">
         <f t="shared" si="4"/>
         <v>42979</v>
@@ -13499,7 +13508,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23">
         <f>EDATE(A447,1)</f>
         <v>43009</v>
@@ -13520,7 +13529,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <f t="shared" ref="A449:A450" si="5">EDATE(A448,1)</f>
         <v>43040</v>
@@ -13541,7 +13550,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23">
         <f t="shared" si="5"/>
         <v>43070</v>
@@ -13568,7 +13577,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23"/>
       <c r="B451" s="20" t="s">
         <v>51</v>
@@ -13588,7 +13597,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="48" t="s">
         <v>46</v>
       </c>
@@ -13610,7 +13619,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>43101</v>
       </c>
@@ -13636,7 +13645,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>43132</v>
       </c>
@@ -13656,7 +13665,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>43160</v>
       </c>
@@ -13682,7 +13691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>43191</v>
       </c>
@@ -13702,7 +13711,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43221</v>
       </c>
@@ -13722,7 +13731,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43252</v>
       </c>
@@ -13746,7 +13755,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>43282</v>
       </c>
@@ -13766,7 +13775,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43313</v>
       </c>
@@ -13786,7 +13795,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>43344</v>
       </c>
@@ -13806,7 +13815,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>43374</v>
       </c>
@@ -13830,7 +13839,7 @@
         <v>43401</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43405</v>
       </c>
@@ -13850,7 +13859,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43435</v>
       </c>
@@ -13874,7 +13883,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>52</v>
@@ -13898,7 +13907,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="48" t="s">
         <v>54</v>
       </c>
@@ -13916,7 +13925,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>43466</v>
       </c>
@@ -13942,7 +13951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43497</v>
       </c>
@@ -13962,7 +13971,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>43525</v>
       </c>
@@ -13982,7 +13991,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43556</v>
       </c>
@@ -14008,7 +14017,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43586</v>
       </c>
@@ -14028,7 +14037,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>43617</v>
       </c>
@@ -14052,7 +14061,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43647</v>
       </c>
@@ -14072,7 +14081,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43678</v>
       </c>
@@ -14098,7 +14107,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43709</v>
       </c>
@@ -14118,7 +14127,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43739</v>
       </c>
@@ -14138,7 +14147,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43770</v>
       </c>
@@ -14158,7 +14167,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43800</v>
       </c>
@@ -14184,7 +14193,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>59</v>
@@ -14206,7 +14215,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="48" t="s">
         <v>61</v>
       </c>
@@ -14224,7 +14233,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43831</v>
       </c>
@@ -14244,7 +14253,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43862</v>
       </c>
@@ -14268,7 +14277,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>43891</v>
       </c>
@@ -14288,7 +14297,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>43922</v>
       </c>
@@ -14308,7 +14317,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43952</v>
       </c>
@@ -14328,7 +14337,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>43983</v>
       </c>
@@ -14348,7 +14357,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>44013</v>
       </c>
@@ -14368,7 +14377,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>44044</v>
       </c>
@@ -14388,7 +14397,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44075</v>
       </c>
@@ -14414,7 +14423,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>49</v>
@@ -14436,7 +14445,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>44105</v>
       </c>
@@ -14456,7 +14465,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>44136</v>
       </c>
@@ -14476,7 +14485,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44166</v>
       </c>
@@ -14500,7 +14509,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="48" t="s">
         <v>66</v>
       </c>
@@ -14518,7 +14527,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>44197</v>
       </c>
@@ -14538,7 +14547,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>44228</v>
       </c>
@@ -14558,7 +14567,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>44256</v>
       </c>
@@ -14578,7 +14587,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44287</v>
       </c>
@@ -14598,7 +14607,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44317</v>
       </c>
@@ -14618,7 +14627,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>44348</v>
       </c>
@@ -14638,7 +14647,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>44378</v>
       </c>
@@ -14658,7 +14667,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>44409</v>
       </c>
@@ -14678,7 +14687,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>44440</v>
       </c>
@@ -14698,7 +14707,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>44470</v>
       </c>
@@ -14718,7 +14727,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>44501</v>
       </c>
@@ -14738,7 +14747,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>44531</v>
       </c>
@@ -14762,7 +14771,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="48" t="s">
         <v>67</v>
       </c>
@@ -14780,7 +14789,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f>EDATE(A506,1)</f>
         <v>44562</v>
@@ -14801,7 +14810,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>44593</v>
       </c>
@@ -14821,7 +14830,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44621</v>
       </c>
@@ -14841,7 +14850,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44652</v>
       </c>
@@ -14867,7 +14876,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>44682</v>
       </c>
@@ -14893,7 +14902,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>44713</v>
       </c>
@@ -14917,7 +14926,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>276</v>
@@ -14937,7 +14946,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="50"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44743</v>
       </c>
@@ -14957,7 +14966,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44774</v>
       </c>
@@ -14983,7 +14992,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44805</v>
       </c>
@@ -15007,7 +15016,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>44835</v>
       </c>
@@ -15033,7 +15042,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>44866</v>
       </c>
@@ -15057,7 +15066,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>68</v>
@@ -15079,7 +15088,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>274</v>
@@ -15099,7 +15108,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="50"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>44896</v>
       </c>
@@ -15125,7 +15134,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>69</v>
@@ -15147,7 +15156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>273</v>
@@ -15167,7 +15176,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="48" t="s">
         <v>71</v>
       </c>
@@ -15185,7 +15194,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>44927</v>
       </c>
@@ -15211,7 +15220,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>44958</v>
       </c>
@@ -15237,7 +15246,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>44986</v>
       </c>
@@ -15263,7 +15272,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>45017</v>
       </c>
@@ -15283,7 +15292,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>45047</v>
       </c>
@@ -15309,7 +15318,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>45078</v>
       </c>
@@ -15333,7 +15342,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>57</v>
@@ -15355,7 +15364,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>57</v>
@@ -15377,7 +15386,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>45108</v>
       </c>
@@ -15403,25 +15412,33 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>45139</v>
       </c>
-      <c r="B535" s="20"/>
-      <c r="C535" s="13"/>
+      <c r="B535" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C535" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D535" s="39"/>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
-      <c r="G535" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H535" s="39"/>
+      <c r="G535" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H535" s="39">
+        <v>1</v>
+      </c>
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
-      <c r="K535" s="20"/>
-    </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K535" s="50">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>45170</v>
       </c>
@@ -15439,7 +15456,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>45200</v>
       </c>
@@ -15457,7 +15474,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>45231</v>
       </c>
@@ -15475,7 +15492,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>45261</v>
       </c>
@@ -15493,7 +15510,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>45292</v>
       </c>
@@ -15511,7 +15528,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>45323</v>
       </c>
@@ -15529,7 +15546,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>45352</v>
       </c>
@@ -15547,7 +15564,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>45383</v>
       </c>
@@ -15565,7 +15582,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>45413</v>
       </c>
@@ -15583,7 +15600,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>45444</v>
       </c>
@@ -15601,7 +15618,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>45474</v>
       </c>
@@ -15619,7 +15636,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>45505</v>
       </c>
@@ -15637,7 +15654,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>45536</v>
       </c>
@@ -15655,7 +15672,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>45566</v>
       </c>
@@ -15673,7 +15690,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>45597</v>
       </c>
@@ -15691,7 +15708,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>45627</v>
       </c>
@@ -15709,7 +15726,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>45658</v>
       </c>
@@ -15727,7 +15744,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>45689</v>
       </c>
@@ -15745,7 +15762,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>45717</v>
       </c>
@@ -15763,7 +15780,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>45748</v>
       </c>
@@ -15781,7 +15798,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>45778</v>
       </c>
@@ -15799,7 +15816,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>45809</v>
       </c>
@@ -15817,7 +15834,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>45839</v>
       </c>
@@ -15835,7 +15852,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>45870</v>
       </c>
@@ -15853,7 +15870,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>45901</v>
       </c>
@@ -15871,7 +15888,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>45931</v>
       </c>
@@ -15889,7 +15906,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>45962</v>
       </c>
@@ -15907,7 +15924,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>45992</v>
       </c>
@@ -15925,7 +15942,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>46023</v>
       </c>
@@ -15943,7 +15960,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>46054</v>
       </c>
@@ -15961,7 +15978,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>46082</v>
       </c>
@@ -15979,7 +15996,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>46113</v>
       </c>
@@ -15997,7 +16014,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>46143</v>
       </c>
@@ -16015,7 +16032,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>46174</v>
       </c>
@@ -16033,7 +16050,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>46204</v>
       </c>
@@ -16051,7 +16068,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>46235</v>
       </c>
@@ -16069,7 +16086,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>46266</v>
       </c>
@@ -16087,7 +16104,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>46296</v>
       </c>
@@ -16105,7 +16122,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>46327</v>
       </c>
@@ -16123,7 +16140,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>46357</v>
       </c>
@@ -16141,7 +16158,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16157,7 +16174,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16173,7 +16190,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16189,7 +16206,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="41"/>
       <c r="B579" s="15"/>
       <c r="C579" s="42"/>
@@ -16220,10 +16237,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16246,28 +16263,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16280,7 +16297,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16309,7 +16326,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -16335,17 +16352,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16366,7 +16383,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16393,7 +16410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16419,7 +16436,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16445,7 +16462,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16471,7 +16488,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16497,7 +16514,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16523,7 +16540,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16549,7 +16566,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16575,7 +16592,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16595,7 +16612,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16615,7 +16632,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16635,7 +16652,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16656,7 +16673,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16677,7 +16694,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16698,7 +16715,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16719,7 +16736,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16740,7 +16757,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16761,7 +16778,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16782,7 +16799,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16803,7 +16820,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16824,7 +16841,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16845,7 +16862,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16866,7 +16883,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16887,7 +16904,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16908,7 +16925,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16929,7 +16946,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16950,7 +16967,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16971,7 +16988,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16992,7 +17009,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17013,7 +17030,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17034,7 +17051,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17055,7 +17072,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17064,7 +17081,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17073,7 +17090,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17082,7 +17099,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17091,7 +17108,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17100,7 +17117,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17109,7 +17126,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17118,7 +17135,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17127,7 +17144,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17136,7 +17153,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17145,7 +17162,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17154,7 +17171,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17163,7 +17180,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17172,7 +17189,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17181,7 +17198,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17190,7 +17207,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17199,7 +17216,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17208,7 +17225,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17217,7 +17234,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17226,7 +17243,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17235,7 +17252,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17244,7 +17261,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17253,7 +17270,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17262,7 +17279,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17271,7 +17288,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17280,7 +17297,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17289,7 +17306,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17298,7 +17315,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17307,7 +17324,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17316,7 +17333,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/SP-VMO/MONTENEGRO, HENRY DE SAGUN.xlsx
+++ b/REGULAR/SP-VMO/MONTENEGRO, HENRY DE SAGUN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CEEB96-248D-48C1-A088-AFD952D2A8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="281">
   <si>
     <t>PERIOD</t>
   </si>
@@ -874,12 +875,15 @@
   </si>
   <si>
     <t>12/20-22,27,28/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1590,7 +1594,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1637,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1701,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1761,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1827,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1890,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +1988,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2047,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2112,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2155,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2230,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2416,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2482,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2540,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2606,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,7 +2662,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2733,7 +2737,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,7 +2780,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2846,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2898,7 +2902,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2977,7 +2981,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2994,26 +2998,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K579" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K579"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K580" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K580" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3320,7 +3324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3330,7 +3334,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3338,34 +3342,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M579"/>
+  <dimension ref="A2:M580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A528" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A528" activePane="bottomLeft"/>
       <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="E549" sqref="E549"/>
+      <selection pane="bottomLeft" activeCell="A541" sqref="A541"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3386,7 +3390,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3406,7 +3410,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3428,7 +3432,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3436,7 +3440,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3449,7 +3453,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3466,7 +3470,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3501,7 +3505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3510,7 +3514,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>108.97499999999991</v>
+        <v>110.22499999999991</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3520,13 +3524,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>66.75</v>
+        <v>67</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>74</v>
       </c>
@@ -3551,7 +3555,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>36861</v>
       </c>
@@ -3566,7 +3570,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>75</v>
       </c>
@@ -3581,7 +3585,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>36892</v>
       </c>
@@ -3601,7 +3605,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>36923</v>
@@ -3622,7 +3626,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <f t="shared" ref="A15:A91" si="0">EDATE(A14,1)</f>
         <v>36951</v>
@@ -3643,7 +3647,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -3664,7 +3668,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>37012</v>
@@ -3685,7 +3689,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -3706,7 +3710,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -3727,7 +3731,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -3748,7 +3752,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>37135</v>
@@ -3769,7 +3773,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>37165</v>
@@ -3790,7 +3794,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>37196</v>
@@ -3811,7 +3815,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>37226</v>
@@ -3836,7 +3840,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>76</v>
       </c>
@@ -3858,7 +3862,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>37257</v>
@@ -3879,7 +3883,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>37288</v>
@@ -3900,7 +3904,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>37316</v>
@@ -3921,7 +3925,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>37347</v>
@@ -3942,7 +3946,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>37377</v>
@@ -3963,7 +3967,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>37408</v>
@@ -3984,7 +3988,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -4005,7 +4009,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>37469</v>
@@ -4026,7 +4030,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -4047,7 +4051,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>37530</v>
@@ -4074,7 +4078,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>99</v>
@@ -4094,7 +4098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f>EDATE(A35,1)</f>
         <v>37561</v>
@@ -4115,7 +4119,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>37591</v>
@@ -4140,7 +4144,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>77</v>
       </c>
@@ -4162,7 +4166,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f>EDATE(A38,1)</f>
         <v>37622</v>
@@ -4183,7 +4187,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>37653</v>
@@ -4204,7 +4208,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>37681</v>
@@ -4231,7 +4235,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>49</v>
@@ -4253,7 +4257,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <f>EDATE(A42,1)</f>
         <v>37712</v>
@@ -4274,7 +4278,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>37742</v>
@@ -4295,7 +4299,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -4316,7 +4320,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -4343,7 +4347,7 @@
         <v>37823</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -4364,7 +4368,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -4391,7 +4395,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>101</v>
@@ -4411,7 +4415,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <f>EDATE(A49,1)</f>
         <v>37895</v>
@@ -4438,7 +4442,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>102</v>
@@ -4458,7 +4462,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f>EDATE(A51,1)</f>
         <v>37926</v>
@@ -4485,7 +4489,7 @@
         <v>37939</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -4507,7 +4511,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>103</v>
@@ -4527,7 +4531,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f>EDATE(A53,1)</f>
         <v>37956</v>
@@ -4552,7 +4556,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>107</v>
@@ -4569,7 +4573,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>78</v>
       </c>
@@ -4591,7 +4595,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f>EDATE(A56,1)</f>
         <v>37987</v>
@@ -4616,7 +4620,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>38018</v>
@@ -4641,7 +4645,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>38047</v>
@@ -4668,7 +4672,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>113</v>
@@ -4685,7 +4689,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <f>EDATE(A61,1)</f>
         <v>38078</v>
@@ -4712,7 +4716,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>38108</v>
@@ -4737,7 +4741,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <f t="shared" si="0"/>
         <v>38139</v>
@@ -4758,7 +4762,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <f t="shared" si="0"/>
         <v>38169</v>
@@ -4785,7 +4789,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>111</v>
@@ -4805,7 +4809,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f>EDATE(A66,1)</f>
         <v>38200</v>
@@ -4832,7 +4836,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>57</v>
@@ -4851,7 +4855,7 @@
         <v>38219</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>115</v>
@@ -4868,7 +4872,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <f>EDATE(A68,1)</f>
         <v>38231</v>
@@ -4893,7 +4897,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <f t="shared" si="0"/>
         <v>38261</v>
@@ -4920,7 +4924,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <f t="shared" si="0"/>
         <v>38292</v>
@@ -4945,7 +4949,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <f t="shared" si="0"/>
         <v>38322</v>
@@ -4970,7 +4974,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>65</v>
@@ -4987,7 +4991,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>79</v>
       </c>
@@ -5009,7 +5013,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <f>EDATE(A74,1)</f>
         <v>38353</v>
@@ -5036,7 +5040,7 @@
         <v>38357</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>57</v>
@@ -5058,7 +5062,7 @@
         <v>38370</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <f>EDATE(A77,1)</f>
         <v>38384</v>
@@ -5079,7 +5083,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f t="shared" si="0"/>
         <v>38412</v>
@@ -5106,7 +5110,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>69</v>
@@ -5128,7 +5132,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f>EDATE(A80,1)</f>
         <v>38443</v>
@@ -5149,7 +5153,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <f t="shared" si="0"/>
         <v>38473</v>
@@ -5170,7 +5174,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <f t="shared" si="0"/>
         <v>38504</v>
@@ -5197,7 +5201,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>59</v>
@@ -5217,7 +5221,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <f>EDATE(A84,1)</f>
         <v>38534</v>
@@ -5238,7 +5242,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <f t="shared" si="0"/>
         <v>38565</v>
@@ -5265,7 +5269,7 @@
         <v>38567</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>125</v>
@@ -5284,7 +5288,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <f>EDATE(A87,1)</f>
         <v>38596</v>
@@ -5311,7 +5315,7 @@
         <v>38624</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <f t="shared" si="0"/>
         <v>38626</v>
@@ -5338,7 +5342,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <f t="shared" si="0"/>
         <v>38657</v>
@@ -5365,7 +5369,7 @@
         <v>38658</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>127</v>
@@ -5387,7 +5391,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <f>EDATE(A91,1)</f>
         <v>38687</v>
@@ -5414,7 +5418,7 @@
         <v>38702</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="48" t="s">
         <v>80</v>
       </c>
@@ -5432,7 +5436,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <f>EDATE(A93,1)</f>
         <v>38718</v>
@@ -5459,7 +5463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>128</v>
@@ -5479,7 +5483,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <f>EDATE(A95,1)</f>
         <v>38749</v>
@@ -5506,7 +5510,7 @@
         <v>38749</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>57</v>
@@ -5528,7 +5532,7 @@
         <v>38755</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>129</v>
@@ -5548,7 +5552,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <f>EDATE(A97,1)</f>
         <v>38777</v>
@@ -5575,7 +5579,7 @@
         <v>38777</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>52</v>
@@ -5597,7 +5601,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>47</v>
@@ -5619,7 +5623,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>134</v>
@@ -5639,7 +5643,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <f>EDATE(A100,1)</f>
         <v>38808</v>
@@ -5666,7 +5670,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>57</v>
@@ -5688,7 +5692,7 @@
         <v>38833</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>135</v>
@@ -5708,7 +5712,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <f>EDATE(A104,1)</f>
         <v>38838</v>
@@ -5735,7 +5739,7 @@
         <v>38846</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>57</v>
@@ -5757,7 +5761,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>57</v>
@@ -5779,7 +5783,7 @@
         <v>38856</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>51</v>
@@ -5799,7 +5803,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>136</v>
@@ -5816,7 +5820,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <f>EDATE(A107,1)</f>
         <v>38869</v>
@@ -5843,7 +5847,7 @@
         <v>38869</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>137</v>
@@ -5863,7 +5867,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <f>EDATE(A112,1)</f>
         <v>38899</v>
@@ -5890,7 +5894,7 @@
         <v>38903</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>57</v>
@@ -5912,7 +5916,7 @@
         <v>38901</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>57</v>
@@ -5934,7 +5938,7 @@
         <v>38918</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>57</v>
@@ -5956,7 +5960,7 @@
         <v>38922</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>120</v>
@@ -5976,7 +5980,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <f>EDATE(A114,1)</f>
         <v>38930</v>
@@ -6003,7 +6007,7 @@
         <v>38930</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>57</v>
@@ -6025,7 +6029,7 @@
         <v>38944</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>47</v>
@@ -6045,7 +6049,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <f>EDATE(A119,1)</f>
         <v>38961</v>
@@ -6072,7 +6076,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>140</v>
@@ -6092,7 +6096,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="50"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>57</v>
@@ -6114,7 +6118,7 @@
         <v>38981</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <f>EDATE(A122,1)</f>
         <v>38991</v>
@@ -6141,7 +6145,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>57</v>
@@ -6163,7 +6167,7 @@
         <v>38993</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>57</v>
@@ -6183,7 +6187,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>57</v>
@@ -6205,7 +6209,7 @@
         <v>39007</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f>EDATE(A125,1)</f>
         <v>39022</v>
@@ -6232,7 +6236,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>57</v>
@@ -6254,7 +6258,7 @@
         <v>39030</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>57</v>
@@ -6276,7 +6280,7 @@
         <v>39042</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>57</v>
@@ -6298,7 +6302,7 @@
         <v>39045</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <f>EDATE(A129,1)</f>
         <v>39052</v>
@@ -6325,7 +6329,7 @@
         <v>39066</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>95</v>
@@ -6345,7 +6349,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>81</v>
       </c>
@@ -6367,7 +6371,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <f>EDATE(A133,1)</f>
         <v>39083</v>
@@ -6394,7 +6398,7 @@
         <v>39080</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>142</v>
@@ -6414,7 +6418,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <f>EDATE(A136,1)</f>
         <v>39114</v>
@@ -6441,7 +6445,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>57</v>
@@ -6463,7 +6467,7 @@
         <v>39108</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>57</v>
@@ -6485,7 +6489,7 @@
         <v>39121</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>57</v>
@@ -6507,7 +6511,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>49</v>
@@ -6529,7 +6533,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>144</v>
@@ -6549,7 +6553,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="50"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f>EDATE(A138,1)</f>
         <v>39142</v>
@@ -6576,7 +6580,7 @@
         <v>39143</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>49</v>
@@ -6598,7 +6602,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>145</v>
@@ -6618,7 +6622,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>57</v>
@@ -6640,7 +6644,7 @@
         <v>39182</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>146</v>
@@ -6662,7 +6666,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <f>EDATE(A144,1)</f>
         <v>39173</v>
@@ -6689,7 +6693,7 @@
         <v>39197</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>57</v>
@@ -6711,7 +6715,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>147</v>
@@ -6731,7 +6735,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>57</v>
@@ -6753,7 +6757,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>57</v>
@@ -6775,7 +6779,7 @@
         <v>39206</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
         <f>EDATE(A149,1)</f>
         <v>39203</v>
@@ -6802,7 +6806,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>148</v>
@@ -6822,7 +6826,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>96</v>
@@ -6844,7 +6848,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <f>EDATE(A154,1)</f>
         <v>39234</v>
@@ -6871,7 +6875,7 @@
         <v>39234</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>51</v>
@@ -6891,7 +6895,7 @@
         <v>39240</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>57</v>
@@ -6913,7 +6917,7 @@
         <v>39248</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>149</v>
@@ -6933,7 +6937,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>57</v>
@@ -6955,7 +6959,7 @@
         <v>39241</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f>EDATE(A157,1)</f>
         <v>39264</v>
@@ -6982,7 +6986,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>57</v>
@@ -7004,7 +7008,7 @@
         <v>39281</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>57</v>
@@ -7026,7 +7030,7 @@
         <v>39287</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <f>EDATE(A162,1)</f>
         <v>39295</v>
@@ -7053,7 +7057,7 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>49</v>
@@ -7075,7 +7079,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>116</v>
@@ -7095,7 +7099,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>156</v>
@@ -7113,7 +7117,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
         <f>EDATE(A165,1)</f>
         <v>39326</v>
@@ -7140,7 +7144,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>57</v>
@@ -7162,7 +7166,7 @@
         <v>39337</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>49</v>
@@ -7184,7 +7188,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>57</v>
@@ -7206,7 +7210,7 @@
         <v>39343</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <f>EDATE(A169,1)</f>
         <v>39356</v>
@@ -7233,7 +7237,7 @@
         <v>39377</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>57</v>
@@ -7255,7 +7259,7 @@
         <v>39364</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <f>EDATE(A173,1)</f>
         <v>39387</v>
@@ -7282,7 +7286,7 @@
         <v>39380</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>57</v>
@@ -7304,7 +7308,7 @@
         <v>39407</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>39417</v>
@@ -7331,7 +7335,7 @@
         <v>39426</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="48" t="s">
         <v>82</v>
       </c>
@@ -7349,7 +7353,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <f>EDATE(A177,1)</f>
         <v>39448</v>
@@ -7376,7 +7380,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>57</v>
@@ -7395,7 +7399,7 @@
         <v>39469</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>157</v>
@@ -7412,7 +7416,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <f>EDATE(A179,1)</f>
         <v>39479</v>
@@ -7439,7 +7443,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>49</v>
@@ -7461,7 +7465,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>166</v>
@@ -7481,7 +7485,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="50"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <f>EDATE(A182,1)</f>
         <v>39508</v>
@@ -7508,7 +7512,7 @@
         <v>39514</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>52</v>
@@ -7530,7 +7534,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>51</v>
@@ -7550,7 +7554,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>167</v>
@@ -7570,7 +7574,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <f>EDATE(A185,1)</f>
         <v>39539</v>
@@ -7597,7 +7601,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>168</v>
@@ -7617,7 +7621,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <f>EDATE(A189,1)</f>
         <v>39569</v>
@@ -7644,7 +7648,7 @@
         <v>39583</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>57</v>
@@ -7666,7 +7670,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>169</v>
@@ -7686,7 +7690,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23">
         <f>EDATE(A191,1)</f>
         <v>39600</v>
@@ -7713,7 +7717,7 @@
         <v>39622</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>170</v>
@@ -7733,7 +7737,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <f>EDATE(A194,1)</f>
         <v>39630</v>
@@ -7760,7 +7764,7 @@
         <v>39631</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>57</v>
@@ -7782,7 +7786,7 @@
         <v>39645</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>171</v>
@@ -7802,7 +7806,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>39661</v>
@@ -7829,7 +7833,7 @@
         <v>39673</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>57</v>
@@ -7848,7 +7852,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>172</v>
@@ -7865,7 +7869,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <f>EDATE(A199,1)</f>
         <v>39692</v>
@@ -7892,7 +7896,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>57</v>
@@ -7911,7 +7915,7 @@
         <v>39715</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>177</v>
@@ -7928,7 +7932,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <f>EDATE(A202,1)</f>
         <v>39722</v>
@@ -7955,7 +7959,7 @@
         <v>39741</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>57</v>
@@ -7977,7 +7981,7 @@
         <v>39750</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>178</v>
@@ -7997,7 +8001,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23">
         <f>EDATE(A205,1)</f>
         <v>39753</v>
@@ -8022,7 +8026,7 @@
         <v>39777</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>57</v>
@@ -8044,7 +8048,7 @@
         <v>39784</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>179</v>
@@ -8064,7 +8068,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <f>EDATE(A208,1)</f>
         <v>39783</v>
@@ -8091,7 +8095,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>180</v>
@@ -8111,7 +8115,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="48" t="s">
         <v>83</v>
       </c>
@@ -8129,7 +8133,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23">
         <f>EDATE(A211,1)</f>
         <v>39814</v>
@@ -8156,7 +8160,7 @@
         <v>39820</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>57</v>
@@ -8178,7 +8182,7 @@
         <v>39827</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>57</v>
@@ -8200,7 +8204,7 @@
         <v>39841</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>169</v>
@@ -8220,7 +8224,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <f>EDATE(A214,1)</f>
         <v>39845</v>
@@ -8247,7 +8251,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>68</v>
@@ -8267,7 +8271,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>181</v>
@@ -8287,7 +8291,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23">
         <f>EDATE(A218,1)</f>
         <v>39873</v>
@@ -8314,7 +8318,7 @@
         <v>39874</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>52</v>
@@ -8336,7 +8340,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>51</v>
@@ -8356,7 +8360,7 @@
         <v>39896</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>185</v>
@@ -8376,7 +8380,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="50"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <f>EDATE(A221,1)</f>
         <v>39904</v>
@@ -8403,7 +8407,7 @@
         <v>39926</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>137</v>
@@ -8423,7 +8427,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <f>EDATE(A225,1)</f>
         <v>39934</v>
@@ -8448,7 +8452,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <f t="shared" ref="A228:A295" si="1">EDATE(A227,1)</f>
         <v>39965</v>
@@ -8473,7 +8477,7 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>57</v>
@@ -8495,7 +8499,7 @@
         <v>39974</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>49</v>
@@ -8515,7 +8519,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>187</v>
@@ -8537,7 +8541,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <f>EDATE(A228,1)</f>
         <v>39995</v>
@@ -8564,7 +8568,7 @@
         <v>40023</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>188</v>
@@ -8584,7 +8588,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <f>EDATE(A232,1)</f>
         <v>40026</v>
@@ -8611,7 +8615,7 @@
         <v>40045</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>68</v>
@@ -8633,7 +8637,7 @@
         <v>40052</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>40057</v>
@@ -8660,7 +8664,7 @@
         <v>40066</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>189</v>
@@ -8680,7 +8684,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <f>EDATE(A236,1)</f>
         <v>40087</v>
@@ -8707,7 +8711,7 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>57</v>
@@ -8729,7 +8733,7 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>57</v>
@@ -8751,7 +8755,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>190</v>
@@ -8771,7 +8775,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
         <f>EDATE(A238,1)</f>
         <v>40118</v>
@@ -8798,7 +8802,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>191</v>
@@ -8818,7 +8822,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <f>EDATE(A242,1)</f>
         <v>40148</v>
@@ -8839,7 +8843,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="48" t="s">
         <v>84</v>
       </c>
@@ -8857,7 +8861,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <f>EDATE(A244,1)</f>
         <v>40179</v>
@@ -8882,7 +8886,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <f t="shared" si="1"/>
         <v>40210</v>
@@ -8909,7 +8913,7 @@
         <v>40212</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>68</v>
@@ -8931,7 +8935,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>195</v>
@@ -8951,7 +8955,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <f>EDATE(A247,1)</f>
         <v>40238</v>
@@ -8978,7 +8982,7 @@
         <v>40238</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>68</v>
@@ -9000,7 +9004,7 @@
         <v>40263</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>196</v>
@@ -9020,7 +9024,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <f>EDATE(A250,1)</f>
         <v>40269</v>
@@ -9047,7 +9051,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>197</v>
@@ -9067,7 +9071,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <f>EDATE(A253,1)</f>
         <v>40299</v>
@@ -9094,7 +9098,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>57</v>
@@ -9116,7 +9120,7 @@
         <v>40316</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>51</v>
@@ -9136,7 +9140,7 @@
         <v>40336</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>198</v>
@@ -9156,7 +9160,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <f>EDATE(A255,1)</f>
         <v>40330</v>
@@ -9183,7 +9187,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>57</v>
@@ -9205,7 +9209,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <f>EDATE(A259,1)</f>
         <v>40360</v>
@@ -9232,7 +9236,7 @@
         <v>40375</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <f t="shared" si="1"/>
         <v>40391</v>
@@ -9259,7 +9263,7 @@
         <v>40408</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>201</v>
@@ -9279,7 +9283,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <f>EDATE(A262,1)</f>
         <v>40422</v>
@@ -9306,7 +9310,7 @@
         <v>40449</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>101</v>
@@ -9326,7 +9330,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <f>EDATE(A264,1)</f>
         <v>40452</v>
@@ -9353,7 +9357,7 @@
         <v>40470</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>51</v>
@@ -9373,7 +9377,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>202</v>
@@ -9393,7 +9397,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <f>EDATE(A266,1)</f>
         <v>40483</v>
@@ -9420,7 +9424,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>57</v>
@@ -9442,7 +9446,7 @@
         <v>40508</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>95</v>
@@ -9464,7 +9468,7 @@
         <v>40522</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>203</v>
@@ -9484,7 +9488,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <f>EDATE(A269,1)</f>
         <v>40513</v>
@@ -9511,7 +9515,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>204</v>
@@ -9531,7 +9535,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="48" t="s">
         <v>85</v>
       </c>
@@ -9553,7 +9557,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <f>EDATE(A273,1)</f>
         <v>40544</v>
@@ -9578,7 +9582,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23">
         <f t="shared" si="1"/>
         <v>40575</v>
@@ -9605,7 +9609,7 @@
         <v>40577</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>57</v>
@@ -9627,7 +9631,7 @@
         <v>40595</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>205</v>
@@ -9647,7 +9651,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <f>EDATE(A277,1)</f>
         <v>40603</v>
@@ -9674,7 +9678,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>57</v>
@@ -9696,7 +9700,7 @@
         <v>40630</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>164</v>
@@ -9716,7 +9720,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>211</v>
@@ -9733,7 +9737,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <f>EDATE(A280,1)</f>
         <v>40634</v>
@@ -9760,7 +9764,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>212</v>
@@ -9780,7 +9784,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <f>EDATE(A284,1)</f>
         <v>40664</v>
@@ -9807,7 +9811,7 @@
         <v>40667</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>51</v>
@@ -9827,7 +9831,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>92</v>
@@ -9849,7 +9853,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>57</v>
@@ -9871,7 +9875,7 @@
         <v>40701</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>170</v>
@@ -9891,7 +9895,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <f>EDATE(A286,1)</f>
         <v>40695</v>
@@ -9918,7 +9922,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>57</v>
@@ -9940,7 +9944,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>213</v>
@@ -9960,7 +9964,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <f>EDATE(A291,1)</f>
         <v>40725</v>
@@ -9981,7 +9985,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23">
         <f t="shared" si="1"/>
         <v>40756</v>
@@ -10008,7 +10012,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>214</v>
@@ -10028,7 +10032,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <f>EDATE(A295,1)</f>
         <v>40787</v>
@@ -10055,7 +10059,7 @@
         <v>40787</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>57</v>
@@ -10077,7 +10081,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>95</v>
@@ -10099,7 +10103,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>215</v>
@@ -10119,7 +10123,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <f>EDATE(A297,1)</f>
         <v>40817</v>
@@ -10146,7 +10150,7 @@
         <v>40819</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>57</v>
@@ -10168,7 +10172,7 @@
         <v>40827</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>57</v>
@@ -10190,7 +10194,7 @@
         <v>40843</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>220</v>
@@ -10210,7 +10214,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="50"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <f>EDATE(A301,1)</f>
         <v>40848</v>
@@ -10237,7 +10241,7 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>57</v>
@@ -10259,7 +10263,7 @@
         <v>40869</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>221</v>
@@ -10279,7 +10283,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <f>EDATE(A305,1)</f>
         <v>40878</v>
@@ -10306,7 +10310,7 @@
         <v>40885</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>57</v>
@@ -10328,7 +10332,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>222</v>
@@ -10348,7 +10352,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="48" t="s">
         <v>86</v>
       </c>
@@ -10370,7 +10374,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <f>EDATE(A308,1)</f>
         <v>40909</v>
@@ -10397,7 +10401,7 @@
         <v>40932</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>226</v>
@@ -10417,7 +10421,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <f>EDATE(A312,1)</f>
         <v>40940</v>
@@ -10444,7 +10448,7 @@
         <v>40942</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>95</v>
@@ -10466,7 +10470,7 @@
         <v>40961</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>69</v>
@@ -10488,7 +10492,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>223</v>
@@ -10508,7 +10512,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <f>EDATE(A314,1)</f>
         <v>40969</v>
@@ -10533,7 +10537,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <f t="shared" ref="A319:A409" si="2">EDATE(A318,1)</f>
         <v>41000</v>
@@ -10560,7 +10564,7 @@
         <v>41010</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>57</v>
@@ -10582,7 +10586,7 @@
         <v>41024</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>57</v>
@@ -10604,7 +10608,7 @@
         <v>41038</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>57</v>
@@ -10626,7 +10630,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>253</v>
@@ -10646,7 +10650,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="50"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <f>EDATE(A319,1)</f>
         <v>41030</v>
@@ -10671,7 +10675,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>254</v>
@@ -10691,7 +10695,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
         <f>EDATE(A324,1)</f>
         <v>41061</v>
@@ -10718,7 +10722,7 @@
         <v>41071</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>57</v>
@@ -10740,7 +10744,7 @@
         <v>41102</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>255</v>
@@ -10760,7 +10764,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <f>EDATE(A326,1)</f>
         <v>41091</v>
@@ -10787,7 +10791,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>57</v>
@@ -10809,7 +10813,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>256</v>
@@ -10829,7 +10833,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23">
         <f>EDATE(A329,1)</f>
         <v>41122</v>
@@ -10856,7 +10860,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>57</v>
@@ -10878,7 +10882,7 @@
         <v>41145</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <f>EDATE(A332,1)</f>
         <v>41153</v>
@@ -10905,7 +10909,7 @@
         <v>41172</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>257</v>
@@ -10925,7 +10929,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <f>EDATE(A334,1)</f>
         <v>41183</v>
@@ -10952,7 +10956,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>258</v>
@@ -10972,7 +10976,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <f>EDATE(A336,1)</f>
         <v>41214</v>
@@ -10999,7 +11003,7 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>57</v>
@@ -11021,7 +11025,7 @@
         <v>41256</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>259</v>
@@ -11041,7 +11045,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <f>EDATE(A338,1)</f>
         <v>41244</v>
@@ -11068,7 +11072,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="48" t="s">
         <v>87</v>
       </c>
@@ -11090,7 +11094,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>41275</v>
@@ -11111,7 +11115,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <f t="shared" si="2"/>
         <v>41306</v>
@@ -11138,7 +11142,7 @@
         <v>41318</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>57</v>
@@ -11160,7 +11164,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
         <f>EDATE(A344,1)</f>
         <v>41334</v>
@@ -11187,7 +11191,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>59</v>
@@ -11207,7 +11211,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <f>EDATE(A346,1)</f>
         <v>41365</v>
@@ -11234,7 +11238,7 @@
         <v>41375</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>140</v>
@@ -11256,7 +11260,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <f>EDATE(A348,1)</f>
         <v>41395</v>
@@ -11281,7 +11285,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <f t="shared" si="2"/>
         <v>41426</v>
@@ -11308,7 +11312,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23">
         <f t="shared" si="2"/>
         <v>41456</v>
@@ -11335,7 +11339,7 @@
         <v>41473</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>57</v>
@@ -11357,7 +11361,7 @@
         <v>41479</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
         <f>EDATE(A352,1)</f>
         <v>41487</v>
@@ -11384,7 +11388,7 @@
         <v>41492</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>57</v>
@@ -11406,7 +11410,7 @@
         <v>41498</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <f>EDATE(A354,1)</f>
         <v>41518</v>
@@ -11433,7 +11437,7 @@
         <v>41506</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>57</v>
@@ -11455,7 +11459,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23">
         <f>EDATE(A356,1)</f>
         <v>41548</v>
@@ -11482,7 +11486,7 @@
         <v>41572</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>57</v>
@@ -11504,7 +11508,7 @@
         <v>41591</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <f>EDATE(A358,1)</f>
         <v>41579</v>
@@ -11531,7 +11535,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <f t="shared" si="2"/>
         <v>41609</v>
@@ -11558,7 +11562,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>146</v>
@@ -11580,7 +11584,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="48" t="s">
         <v>88</v>
       </c>
@@ -11598,7 +11602,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23">
         <f>EDATE(A361,1)</f>
         <v>41640</v>
@@ -11625,7 +11629,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>262</v>
@@ -11647,7 +11651,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <f>EDATE(A364,1)</f>
         <v>41671</v>
@@ -11668,7 +11672,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23">
         <f t="shared" si="2"/>
         <v>41699</v>
@@ -11695,7 +11699,7 @@
         <v>41703</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>51</v>
@@ -11712,7 +11716,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>69</v>
@@ -11734,7 +11738,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>57</v>
@@ -11756,7 +11760,7 @@
         <v>41733</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>245</v>
@@ -11776,7 +11780,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
         <f>EDATE(A367,1)</f>
         <v>41730</v>
@@ -11803,7 +11807,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>168</v>
@@ -11823,7 +11827,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23">
         <f>EDATE(A372,1)</f>
         <v>41760</v>
@@ -11850,7 +11854,7 @@
         <v>41761</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>57</v>
@@ -11872,7 +11876,7 @@
         <v>41768</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>57</v>
@@ -11894,7 +11898,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>51</v>
@@ -11914,7 +11918,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>187</v>
@@ -11934,7 +11938,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f>EDATE(A374,1)</f>
         <v>41791</v>
@@ -11955,7 +11959,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23">
         <f t="shared" si="2"/>
         <v>41821</v>
@@ -11982,7 +11986,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>246</v>
@@ -12002,7 +12006,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23">
         <f>EDATE(A380,1)</f>
         <v>41852</v>
@@ -12029,7 +12033,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>247</v>
@@ -12049,7 +12053,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <f>EDATE(A382,1)</f>
         <v>41883</v>
@@ -12076,7 +12080,7 @@
         <v>41890</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
         <v>248</v>
@@ -12096,7 +12100,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <f>EDATE(A384,1)</f>
         <v>41913</v>
@@ -12121,7 +12125,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>57</v>
@@ -12143,7 +12147,7 @@
         <v>41932</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>57</v>
@@ -12165,7 +12169,7 @@
         <v>41935</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23">
         <f>EDATE(A386,1)</f>
         <v>41944</v>
@@ -12190,7 +12194,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>242</v>
@@ -12207,7 +12211,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <f>EDATE(A389,1)</f>
         <v>41974</v>
@@ -12232,7 +12236,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="48" t="s">
         <v>89</v>
       </c>
@@ -12254,7 +12258,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <f>EDATE(A391,1)</f>
         <v>42005</v>
@@ -12281,7 +12285,7 @@
         <v>42033</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>187</v>
@@ -12301,7 +12305,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23">
         <f>EDATE(A393,1)</f>
         <v>42036</v>
@@ -12326,7 +12330,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>234</v>
@@ -12346,7 +12350,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23">
         <f>EDATE(A395,1)</f>
         <v>42064</v>
@@ -12373,7 +12377,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>235</v>
@@ -12393,7 +12397,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23">
         <f>EDATE(A397,1)</f>
         <v>42095</v>
@@ -12420,7 +12424,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>187</v>
@@ -12440,7 +12444,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23">
         <f>EDATE(A399,1)</f>
         <v>42125</v>
@@ -12465,7 +12469,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <f t="shared" si="2"/>
         <v>42156</v>
@@ -12490,7 +12494,7 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>57</v>
@@ -12512,7 +12516,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>236</v>
@@ -12532,7 +12536,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <f>EDATE(A402,1)</f>
         <v>42186</v>
@@ -12557,7 +12561,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23">
         <f t="shared" si="2"/>
         <v>42217</v>
@@ -12584,7 +12588,7 @@
         <v>42234</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>57</v>
@@ -12606,7 +12610,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23">
         <f>EDATE(A406,1)</f>
         <v>42248</v>
@@ -12627,7 +12631,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <f t="shared" si="2"/>
         <v>42278</v>
@@ -12654,7 +12658,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>49</v>
@@ -12676,7 +12680,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>228</v>
@@ -12696,7 +12700,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23">
         <f>EDATE(A409,1)</f>
         <v>42309</v>
@@ -12721,7 +12725,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>229</v>
@@ -12741,7 +12745,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23">
         <f>EDATE(A412,1)</f>
         <v>42339</v>
@@ -12768,7 +12772,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>230</v>
@@ -12788,7 +12792,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="48" t="s">
         <v>90</v>
       </c>
@@ -12810,7 +12814,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23">
         <f>EDATE(A414,1)</f>
         <v>42370</v>
@@ -12837,7 +12841,7 @@
         <v>42387</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23">
         <f t="shared" ref="A418:A433" si="3">EDATE(A417,1)</f>
         <v>42401</v>
@@ -12864,7 +12868,7 @@
         <v>42409</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>57</v>
@@ -12886,7 +12890,7 @@
         <v>42426</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>52</v>
@@ -12908,7 +12912,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>49</v>
@@ -12928,7 +12932,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23">
         <f>EDATE(A418,1)</f>
         <v>42430</v>
@@ -12949,7 +12953,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23">
         <f t="shared" si="3"/>
         <v>42461</v>
@@ -12976,7 +12980,7 @@
         <v>42466</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>57</v>
@@ -12998,7 +13002,7 @@
         <v>42489</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>57</v>
@@ -13020,7 +13024,7 @@
         <v>42485</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>57</v>
@@ -13042,7 +13046,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23">
         <f>EDATE(A423,1)</f>
         <v>42491</v>
@@ -13063,7 +13067,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <f t="shared" si="3"/>
         <v>42522</v>
@@ -13088,7 +13092,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23">
         <f t="shared" si="3"/>
         <v>42552</v>
@@ -13109,7 +13113,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23">
         <f t="shared" si="3"/>
         <v>42583</v>
@@ -13136,7 +13140,7 @@
         <v>42607</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23">
         <f t="shared" si="3"/>
         <v>42614</v>
@@ -13157,7 +13161,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23">
         <f t="shared" si="3"/>
         <v>42644</v>
@@ -13178,7 +13182,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23">
         <f t="shared" si="3"/>
         <v>42675</v>
@@ -13199,7 +13203,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23">
         <f>EDATE(A433,1)</f>
         <v>42705</v>
@@ -13224,7 +13228,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>57</v>
@@ -13241,7 +13245,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>164</v>
@@ -13256,7 +13260,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="48" t="s">
         <v>91</v>
       </c>
@@ -13275,7 +13279,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23">
         <f>EDATE(A434,1)</f>
         <v>42736</v>
@@ -13302,7 +13306,7 @@
         <v>42765</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23">
         <f t="shared" ref="A439:A447" si="4">EDATE(A438,1)</f>
         <v>42767</v>
@@ -13323,7 +13327,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="23">
         <f t="shared" si="4"/>
         <v>42795</v>
@@ -13350,7 +13354,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23">
         <f t="shared" si="4"/>
         <v>42826</v>
@@ -13377,7 +13381,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>57</v>
@@ -13399,7 +13403,7 @@
         <v>42850</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23">
         <f>EDATE(A441,1)</f>
         <v>42856</v>
@@ -13420,7 +13424,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="23">
         <f t="shared" si="4"/>
         <v>42887</v>
@@ -13445,7 +13449,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23">
         <f t="shared" si="4"/>
         <v>42917</v>
@@ -13466,7 +13470,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23">
         <f t="shared" si="4"/>
         <v>42948</v>
@@ -13487,7 +13491,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23">
         <f t="shared" si="4"/>
         <v>42979</v>
@@ -13508,7 +13512,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23">
         <f>EDATE(A447,1)</f>
         <v>43009</v>
@@ -13529,7 +13533,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23">
         <f t="shared" ref="A449:A450" si="5">EDATE(A448,1)</f>
         <v>43040</v>
@@ -13550,7 +13554,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="23">
         <f t="shared" si="5"/>
         <v>43070</v>
@@ -13577,7 +13581,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="23"/>
       <c r="B451" s="20" t="s">
         <v>51</v>
@@ -13597,7 +13601,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="48" t="s">
         <v>46</v>
       </c>
@@ -13619,7 +13623,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>43101</v>
       </c>
@@ -13645,7 +13649,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>43132</v>
       </c>
@@ -13665,7 +13669,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>43160</v>
       </c>
@@ -13691,7 +13695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>43191</v>
       </c>
@@ -13711,7 +13715,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>43221</v>
       </c>
@@ -13731,7 +13735,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>43252</v>
       </c>
@@ -13755,7 +13759,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>43282</v>
       </c>
@@ -13775,7 +13779,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>43313</v>
       </c>
@@ -13795,7 +13799,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>43344</v>
       </c>
@@ -13815,7 +13819,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>43374</v>
       </c>
@@ -13839,7 +13843,7 @@
         <v>43401</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>43405</v>
       </c>
@@ -13859,7 +13863,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>43435</v>
       </c>
@@ -13883,7 +13887,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>52</v>
@@ -13907,7 +13911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="48" t="s">
         <v>54</v>
       </c>
@@ -13925,7 +13929,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>43466</v>
       </c>
@@ -13951,7 +13955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43497</v>
       </c>
@@ -13971,7 +13975,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>43525</v>
       </c>
@@ -13991,7 +13995,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43556</v>
       </c>
@@ -14017,7 +14021,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>43586</v>
       </c>
@@ -14037,7 +14041,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>43617</v>
       </c>
@@ -14061,7 +14065,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43647</v>
       </c>
@@ -14081,7 +14085,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43678</v>
       </c>
@@ -14107,7 +14111,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43709</v>
       </c>
@@ -14127,7 +14131,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>43739</v>
       </c>
@@ -14147,7 +14151,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>43770</v>
       </c>
@@ -14167,7 +14171,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>43800</v>
       </c>
@@ -14193,7 +14197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>59</v>
@@ -14215,7 +14219,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="48" t="s">
         <v>61</v>
       </c>
@@ -14233,7 +14237,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>43831</v>
       </c>
@@ -14253,7 +14257,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>43862</v>
       </c>
@@ -14277,7 +14281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>43891</v>
       </c>
@@ -14297,7 +14301,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>43922</v>
       </c>
@@ -14317,7 +14321,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>43952</v>
       </c>
@@ -14337,7 +14341,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>43983</v>
       </c>
@@ -14357,7 +14361,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>44013</v>
       </c>
@@ -14377,7 +14381,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>44044</v>
       </c>
@@ -14397,7 +14401,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44075</v>
       </c>
@@ -14423,7 +14427,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>49</v>
@@ -14445,7 +14449,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>44105</v>
       </c>
@@ -14465,7 +14469,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>44136</v>
       </c>
@@ -14485,7 +14489,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>44166</v>
       </c>
@@ -14509,7 +14513,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="48" t="s">
         <v>66</v>
       </c>
@@ -14527,7 +14531,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>44197</v>
       </c>
@@ -14547,7 +14551,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>44228</v>
       </c>
@@ -14567,7 +14571,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>44256</v>
       </c>
@@ -14587,7 +14591,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>44287</v>
       </c>
@@ -14607,7 +14611,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>44317</v>
       </c>
@@ -14627,7 +14631,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>44348</v>
       </c>
@@ -14647,7 +14651,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>44378</v>
       </c>
@@ -14667,7 +14671,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>44409</v>
       </c>
@@ -14687,7 +14691,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>44440</v>
       </c>
@@ -14707,7 +14711,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>44470</v>
       </c>
@@ -14727,7 +14731,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>44501</v>
       </c>
@@ -14747,7 +14751,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>44531</v>
       </c>
@@ -14771,7 +14775,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="48" t="s">
         <v>67</v>
       </c>
@@ -14789,7 +14793,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f>EDATE(A506,1)</f>
         <v>44562</v>
@@ -14810,7 +14814,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>44593</v>
       </c>
@@ -14830,7 +14834,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>44621</v>
       </c>
@@ -14850,7 +14854,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>44652</v>
       </c>
@@ -14876,7 +14880,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>44682</v>
       </c>
@@ -14902,7 +14906,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>44713</v>
       </c>
@@ -14926,7 +14930,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>276</v>
@@ -14946,7 +14950,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="50"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44743</v>
       </c>
@@ -14966,7 +14970,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>44774</v>
       </c>
@@ -14992,7 +14996,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>44805</v>
       </c>
@@ -15016,7 +15020,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>44835</v>
       </c>
@@ -15042,7 +15046,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>44866</v>
       </c>
@@ -15066,7 +15070,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>68</v>
@@ -15088,7 +15092,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>274</v>
@@ -15108,7 +15112,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="50"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>44896</v>
       </c>
@@ -15134,7 +15138,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>69</v>
@@ -15156,7 +15160,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>273</v>
@@ -15176,7 +15180,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="48" t="s">
         <v>71</v>
       </c>
@@ -15194,7 +15198,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>44927</v>
       </c>
@@ -15220,7 +15224,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>44958</v>
       </c>
@@ -15246,7 +15250,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>44986</v>
       </c>
@@ -15272,7 +15276,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>45017</v>
       </c>
@@ -15292,7 +15296,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>45047</v>
       </c>
@@ -15318,7 +15322,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>45078</v>
       </c>
@@ -15342,7 +15346,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>57</v>
@@ -15364,7 +15368,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>57</v>
@@ -15386,7 +15390,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>45108</v>
       </c>
@@ -15412,7 +15416,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>45139</v>
       </c>
@@ -15438,7 +15442,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>45170</v>
       </c>
@@ -15464,7 +15468,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>45200</v>
       </c>
@@ -15484,7 +15488,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>45231</v>
       </c>
@@ -15510,27 +15514,35 @@
         <v>279</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>45261</v>
       </c>
-      <c r="B539" s="20"/>
-      <c r="C539" s="13"/>
+      <c r="B539" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C539" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D539" s="39"/>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
-      <c r="G539" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H539" s="39"/>
+      <c r="G539" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H539" s="39">
+        <v>1</v>
+      </c>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="20"/>
-    </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A540" s="40">
-        <v>45292</v>
+      <c r="K539" s="50">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A540" s="48" t="s">
+        <v>280</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15544,11 +15556,11 @@
       <c r="H540" s="39"/>
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
-      <c r="K540" s="20"/>
-    </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K540" s="50"/>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15564,9 +15576,9 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15582,9 +15594,9 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15600,9 +15612,9 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15618,9 +15630,9 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15636,9 +15648,9 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15654,9 +15666,9 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15672,9 +15684,9 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15690,9 +15702,9 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15708,9 +15720,9 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15726,9 +15738,9 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15744,9 +15756,9 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15762,9 +15774,9 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15780,9 +15792,9 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15798,9 +15810,9 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15816,9 +15828,9 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15834,9 +15846,9 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15852,9 +15864,9 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15870,9 +15882,9 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15888,9 +15900,9 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15906,9 +15918,9 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15924,9 +15936,9 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15942,9 +15954,9 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15960,9 +15972,9 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15978,9 +15990,9 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15996,9 +16008,9 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16014,9 +16026,9 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16032,9 +16044,9 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16050,9 +16062,9 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16068,9 +16080,9 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16086,9 +16098,9 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16104,9 +16116,9 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16122,9 +16134,9 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16140,9 +16152,9 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16158,9 +16170,9 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16176,8 +16188,10 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40"/>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A576" s="40">
+        <v>46357</v>
+      </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
       <c r="D576" s="39"/>
@@ -16192,7 +16206,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16208,7 +16222,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16224,21 +16238,37 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="41"/>
-      <c r="B579" s="15"/>
-      <c r="C579" s="42"/>
-      <c r="D579" s="43"/>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A579" s="40"/>
+      <c r="B579" s="20"/>
+      <c r="C579" s="13"/>
+      <c r="D579" s="39"/>
       <c r="E579" s="9"/>
-      <c r="F579" s="15"/>
-      <c r="G579" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H579" s="43"/>
+      <c r="F579" s="20"/>
+      <c r="G579" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H579" s="39"/>
       <c r="I579" s="9"/>
-      <c r="J579" s="12"/>
-      <c r="K579" s="15"/>
+      <c r="J579" s="11"/>
+      <c r="K579" s="20"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A580" s="41"/>
+      <c r="B580" s="15"/>
+      <c r="C580" s="42"/>
+      <c r="D580" s="43"/>
+      <c r="E580" s="9"/>
+      <c r="F580" s="15"/>
+      <c r="G580" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H580" s="43"/>
+      <c r="I580" s="9"/>
+      <c r="J580" s="12"/>
+      <c r="K580" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16255,10 +16285,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16281,28 +16311,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16315,7 +16345,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16344,7 +16374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -16370,17 +16400,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16401,7 +16431,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16428,7 +16458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16454,7 +16484,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16480,7 +16510,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16506,7 +16536,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16532,7 +16562,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16558,7 +16588,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16584,7 +16614,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16610,7 +16640,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16630,7 +16660,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16650,7 +16680,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16670,7 +16700,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16691,7 +16721,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16712,7 +16742,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16733,7 +16763,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16754,7 +16784,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16775,7 +16805,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16796,7 +16826,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16817,7 +16847,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16838,7 +16868,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16859,7 +16889,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16880,7 +16910,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16901,7 +16931,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16922,7 +16952,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16943,7 +16973,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16964,7 +16994,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16985,7 +17015,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17006,7 +17036,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17027,7 +17057,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17048,7 +17078,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17069,7 +17099,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17090,7 +17120,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17099,7 +17129,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17108,7 +17138,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17117,7 +17147,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17126,7 +17156,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17135,7 +17165,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17144,7 +17174,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17153,7 +17183,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17162,7 +17192,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17171,7 +17201,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17180,7 +17210,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17189,7 +17219,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17198,7 +17228,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17207,7 +17237,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17216,7 +17246,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17225,7 +17255,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17234,7 +17264,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17243,7 +17273,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17252,7 +17282,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17261,7 +17291,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17270,7 +17300,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17279,7 +17309,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17288,7 +17318,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17297,7 +17327,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17306,7 +17336,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17315,7 +17345,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17324,7 +17354,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17333,7 +17363,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17342,7 +17372,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17351,7 +17381,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
